--- a/CGE/2simulation.xlsx
+++ b/CGE/2simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\KENTIMGE\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D16BEE-4E27-4561-89F0-669A9779F442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C30EAC-3147-457D-B8A3-377A294138F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFPgr (2)" sheetId="19" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -814,7 +814,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -840,13 +840,13 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -854,77 +854,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="137">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -2309,7 +2239,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Notes"/>
@@ -2672,15 +2602,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23C51CB-0A5D-4B56-9E7E-535AC72724A0}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD70"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -2707,7 +2638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
       <c r="D2" s="16">
         <v>1</v>
@@ -2728,7 +2659,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2758,13 +2689,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2793,7 +2724,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>2020</v>
       </c>
@@ -2860,7 +2791,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>149</v>
       </c>
@@ -2943,7 +2874,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>150</v>
       </c>
@@ -3028,7 +2959,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>192</v>
       </c>
@@ -3116,7 +3047,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>151</v>
       </c>
@@ -3198,7 +3129,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
@@ -3280,7 +3211,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>153</v>
       </c>
@@ -3368,7 +3299,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>154</v>
       </c>
@@ -3456,7 +3387,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>155</v>
       </c>
@@ -3544,7 +3475,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>156</v>
       </c>
@@ -3632,7 +3563,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>157</v>
       </c>
@@ -3717,7 +3648,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>158</v>
       </c>
@@ -3800,7 +3731,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>159</v>
       </c>
@@ -3883,7 +3814,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>160</v>
       </c>
@@ -3939,7 +3870,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>161</v>
       </c>
@@ -3995,7 +3926,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>162</v>
       </c>
@@ -4051,7 +3982,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>163</v>
       </c>
@@ -4107,7 +4038,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -4163,7 +4094,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
@@ -4219,7 +4150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>193</v>
       </c>
@@ -4275,7 +4206,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>188</v>
       </c>
@@ -4331,7 +4262,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
@@ -4387,7 +4318,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>164</v>
       </c>
@@ -4443,7 +4374,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>165</v>
       </c>
@@ -4499,7 +4430,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>93</v>
       </c>
@@ -4555,7 +4486,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>166</v>
       </c>
@@ -4611,7 +4542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>167</v>
       </c>
@@ -4667,7 +4598,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>168</v>
       </c>
@@ -4723,7 +4654,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
@@ -4779,7 +4710,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>169</v>
       </c>
@@ -4835,7 +4766,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -4891,7 +4822,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>170</v>
       </c>
@@ -4947,7 +4878,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>171</v>
       </c>
@@ -5003,7 +4934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>172</v>
       </c>
@@ -5059,7 +4990,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>173</v>
       </c>
@@ -5115,7 +5046,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>174</v>
       </c>
@@ -5171,7 +5102,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>175</v>
       </c>
@@ -5227,7 +5158,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>176</v>
       </c>
@@ -5283,7 +5214,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>143</v>
       </c>
@@ -5339,7 +5270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>177</v>
       </c>
@@ -5395,7 +5326,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>178</v>
       </c>
@@ -5451,7 +5382,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>144</v>
       </c>
@@ -5507,7 +5438,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>145</v>
       </c>
@@ -5563,7 +5494,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>179</v>
       </c>
@@ -5613,7 +5544,7 @@
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -5637,7 +5568,7 @@
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -5661,7 +5592,7 @@
       <c r="AA52" s="13"/>
       <c r="AB52" s="13"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -5685,7 +5616,7 @@
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5709,7 +5640,7 @@
       <c r="AA54" s="13"/>
       <c r="AB54" s="13"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5733,7 +5664,7 @@
       <c r="AA55" s="13"/>
       <c r="AB55" s="13"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -5757,7 +5688,7 @@
       <c r="AA56" s="13"/>
       <c r="AB56" s="13"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -5781,7 +5712,7 @@
       <c r="AA57" s="13"/>
       <c r="AB57" s="13"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5805,7 +5736,7 @@
       <c r="AA58" s="13"/>
       <c r="AB58" s="13"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5829,7 +5760,7 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -5853,7 +5784,7 @@
       <c r="AA60" s="13"/>
       <c r="AB60" s="13"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -5877,7 +5808,7 @@
       <c r="AA61" s="13"/>
       <c r="AB61" s="13"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -5901,7 +5832,7 @@
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -5925,7 +5856,7 @@
       <c r="AA63" s="13"/>
       <c r="AB63" s="13"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -5950,7 +5881,7 @@
       <c r="AA64" s="13"/>
       <c r="AB64" s="13"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -5975,7 +5906,7 @@
       <c r="AA65" s="13"/>
       <c r="AB65" s="13"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -6000,7 +5931,7 @@
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -6025,7 +5956,7 @@
       <c r="AA67" s="13"/>
       <c r="AB67" s="13"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -6050,7 +5981,7 @@
       <c r="AA68" s="13"/>
       <c r="AB68" s="13"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -6075,7 +6006,7 @@
       <c r="AA69" s="13"/>
       <c r="AB69" s="13"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -6102,212 +6033,212 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C64:E70 H64:H70 J64:M70 K8:M63 S8:U8 S18:AB18 Y8:AB8 Y9:Z17 AB9:AB17 S17:X17 S10:X15 S20:AB70 Y19:AB19 C8:I63">
-    <cfRule type="cellIs" dxfId="143" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="42" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:U8 S18:AB18 Y8:AB8 Y9:Z17 AB9:AB17 S20:AB70 Y19:AB19">
-    <cfRule type="cellIs" dxfId="142" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:I70">
-    <cfRule type="cellIs" dxfId="141" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:G70">
-    <cfRule type="cellIs" dxfId="140" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="39" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="33" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:N1 R1 P1">
-    <cfRule type="cellIs" dxfId="138" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="38" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="37" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="136" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="36" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 Q1">
-    <cfRule type="cellIs" dxfId="135" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="35" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="134" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="34" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8 F8:I8">
-    <cfRule type="cellIs" dxfId="133" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="32" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="132" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="31" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="131" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8 H8">
-    <cfRule type="cellIs" dxfId="130" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="29" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="129" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="28" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="128" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="27" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:D56 C62:D63 C58:D59 C30:D31 C9:D28 F9:I28 F30:I31 F58:I59 F62:I63 F55:I56 C33:D50 F33:I50">
-    <cfRule type="cellIs" dxfId="127" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="26" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29 F29:I29">
-    <cfRule type="cellIs" dxfId="126" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="25" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:D32 F32:I32">
-    <cfRule type="cellIs" dxfId="125" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="24" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:D51 F51:I51">
-    <cfRule type="cellIs" dxfId="124" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="23" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:D53 F52:I53">
-    <cfRule type="cellIs" dxfId="123" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:D54 F54:I54">
-    <cfRule type="cellIs" dxfId="122" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="21" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:D57 F57:I57">
-    <cfRule type="cellIs" dxfId="121" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="20" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:D60 F60:I60">
-    <cfRule type="cellIs" dxfId="120" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:D61 F61:I61">
-    <cfRule type="cellIs" dxfId="119" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="18" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:F70">
-    <cfRule type="cellIs" dxfId="118" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="17" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="117" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="16" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="116" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="15" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E56 E62:E63 E58:E59 E30:E31 E9:E28 E33:E50">
-    <cfRule type="cellIs" dxfId="115" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="114" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="12" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="cellIs" dxfId="111" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="8" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="108" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="7" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:X8">
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:X8">
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:X16">
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:X19">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:X19">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6317,6 +6248,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6326,14 +6258,14 @@
       <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -6341,7 +6273,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -6383,7 +6315,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -6465,7 +6397,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
         <f>FacSup!A8</f>
         <v>flab-n</v>
@@ -6535,7 +6467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
         <f>FacSup!A9</f>
         <v>flab-p</v>
@@ -6605,7 +6537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="str">
         <f>FacSup!A10</f>
         <v>flab-s</v>
@@ -6675,7 +6607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -6744,7 +6676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -6815,47 +6747,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7:K7 B8:K11 Q8:Z11">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Z10">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z10">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z10">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z10">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z10">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:K12">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Z12">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Z12">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6865,6 +6797,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6874,14 +6807,14 @@
       <selection pane="bottomRight" activeCell="A51" sqref="A51:A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -6889,7 +6822,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -6931,7 +6864,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -7013,7 +6946,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
         <f>TFP!A8</f>
         <v>amaiz</v>
@@ -7089,7 +7022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
         <f>TFP!A9</f>
         <v>arice</v>
@@ -7165,7 +7098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="str">
         <f>TFP!A10</f>
         <v>aocer</v>
@@ -7241,7 +7174,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="str">
         <f>TFP!A11</f>
         <v>apuls</v>
@@ -7317,7 +7250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="str">
         <f>TFP!A12</f>
         <v>aoils</v>
@@ -7393,7 +7326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="str">
         <f>TFP!A13</f>
         <v>aroot</v>
@@ -7469,7 +7402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="str">
         <f>TFP!A14</f>
         <v>avege</v>
@@ -7545,7 +7478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="str">
         <f>TFP!A15</f>
         <v>asugr</v>
@@ -7621,7 +7554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="str">
         <f>TFP!A16</f>
         <v>atoba</v>
@@ -7697,7 +7630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="str">
         <f>TFP!A17</f>
         <v>acott</v>
@@ -7773,7 +7706,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="str">
         <f>TFP!A18</f>
         <v>afrui</v>
@@ -7849,7 +7782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="str">
         <f>TFP!A19</f>
         <v>acoff</v>
@@ -7925,7 +7858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="str">
         <f>TFP!A20</f>
         <v>aocrp</v>
@@ -8001,7 +7934,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="str">
         <f>TFP!A21</f>
         <v>acatt</v>
@@ -8077,7 +8010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="str">
         <f>TFP!A22</f>
         <v>apoul</v>
@@ -8153,7 +8086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="str">
         <f>TFP!A23</f>
         <v>aoliv</v>
@@ -8229,7 +8162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="str">
         <f>TFP!A24</f>
         <v>afore</v>
@@ -8305,7 +8238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="str">
         <f>TFP!A25</f>
         <v>afish</v>
@@ -8381,7 +8314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="str">
         <f>TFP!A26</f>
         <v>amine</v>
@@ -8457,7 +8390,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="str">
         <f>TFP!A27</f>
         <v>angas</v>
@@ -8533,7 +8466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="str">
         <f>TFP!A28</f>
         <v>afood</v>
@@ -8609,7 +8542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="str">
         <f>TFP!A29</f>
         <v>abeve</v>
@@ -8685,7 +8618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="str">
         <f>TFP!A30</f>
         <v>atext</v>
@@ -8762,7 +8695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="str">
         <f>TFP!A31</f>
         <v>awood</v>
@@ -8838,7 +8771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="str">
         <f>TFP!A32</f>
         <v>achem</v>
@@ -8914,7 +8847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="str">
         <f>TFP!A33</f>
         <v>anmet</v>
@@ -8990,7 +8923,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="str">
         <f>TFP!A34</f>
         <v>ametl</v>
@@ -9066,7 +8999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="str">
         <f>TFP!A35</f>
         <v>amach</v>
@@ -9142,7 +9075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="str">
         <f>TFP!A36</f>
         <v>aoman</v>
@@ -9218,7 +9151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="str">
         <f>TFP!A37</f>
         <v>aelec</v>
@@ -9294,7 +9227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="str">
         <f>TFP!A38</f>
         <v>awatr</v>
@@ -9370,7 +9303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="str">
         <f>TFP!A39</f>
         <v>acons</v>
@@ -9446,7 +9379,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="str">
         <f>TFP!A40</f>
         <v>atrad</v>
@@ -9522,7 +9455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="str">
         <f>TFP!A41</f>
         <v>atran</v>
@@ -9598,7 +9531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="str">
         <f>TFP!A42</f>
         <v>ahotl</v>
@@ -9674,7 +9607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="str">
         <f>TFP!A43</f>
         <v>acomm</v>
@@ -9750,7 +9683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="str">
         <f>TFP!A44</f>
         <v>afsrv</v>
@@ -9826,7 +9759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="str">
         <f>TFP!A45</f>
         <v>areal</v>
@@ -9902,7 +9835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="str">
         <f>TFP!A46</f>
         <v>absrv</v>
@@ -9978,7 +9911,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="str">
         <f>TFP!A47</f>
         <v>apadm</v>
@@ -10054,7 +9987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="str">
         <f>TFP!A48</f>
         <v>aeduc</v>
@@ -10130,7 +10063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="str">
         <f>TFP!A49</f>
         <v>aheal</v>
@@ -10206,7 +10139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="str">
         <f>TFP!A50</f>
         <v>aosrv</v>
@@ -10282,7 +10215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -10306,7 +10239,7 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -10330,7 +10263,7 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -10354,7 +10287,7 @@
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -10378,7 +10311,7 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -10402,7 +10335,7 @@
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -10426,7 +10359,7 @@
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -10452,7 +10385,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7:L7 C8:L57 R8:AA57">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10462,6 +10395,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10471,17 +10405,17 @@
       <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -10489,7 +10423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -10531,7 +10465,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -10613,7 +10547,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -10694,7 +10628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10775,7 +10709,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -10856,7 +10790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -10937,7 +10871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -11018,7 +10952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -11099,7 +11033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -11180,7 +11114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -11260,7 +11194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -11342,47 +11276,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N8:N14 D7:L7 Q8:Z16 C8:L14">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Z16">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z16">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z16">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z16">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z16">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L15">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:L16">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:L16">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11392,6 +11326,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11401,14 +11336,14 @@
       <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -11416,7 +11351,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -11458,7 +11393,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -11540,7 +11475,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>194</v>
       </c>
@@ -11619,7 +11554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>195</v>
       </c>
@@ -11699,7 +11634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>196</v>
       </c>
@@ -11779,7 +11714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>197</v>
       </c>
@@ -11859,7 +11794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>198</v>
       </c>
@@ -11939,7 +11874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>180</v>
       </c>
@@ -12019,7 +11954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>181</v>
       </c>
@@ -12099,7 +12034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>182</v>
       </c>
@@ -12178,7 +12113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>183</v>
       </c>
@@ -12257,7 +12192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>184</v>
       </c>
@@ -12338,7 +12273,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M8:M14 C7:K7 B8:K17 Q8:Z17">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12349,20 +12284,21 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FE25D5-3358-4861-989A-5151273C22C6}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AZ27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>212</v>
       </c>
@@ -12460,7 +12396,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>213</v>
       </c>
@@ -12558,13 +12494,13 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -12572,7 +12508,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>2020</v>
       </c>
@@ -12716,7 +12652,7 @@
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>194</v>
       </c>
@@ -12849,7 +12785,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>195</v>
       </c>
@@ -12982,7 +12918,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>196</v>
       </c>
@@ -13115,7 +13051,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>197</v>
       </c>
@@ -13248,7 +13184,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>198</v>
       </c>
@@ -13381,7 +13317,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>180</v>
       </c>
@@ -13514,7 +13450,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>181</v>
       </c>
@@ -13647,7 +13583,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>182</v>
       </c>
@@ -13780,7 +13716,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>183</v>
       </c>
@@ -13913,7 +13849,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>184</v>
       </c>
@@ -14046,7 +13982,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -14080,7 +14016,7 @@
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -14114,7 +14050,7 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -14148,7 +14084,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -14182,7 +14118,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -14216,7 +14152,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -14250,7 +14186,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -14284,7 +14220,7 @@
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -14318,7 +14254,7 @@
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -14352,7 +14288,7 @@
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -14388,12 +14324,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:AG27 C7:AZ7 C2:H2">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 N2:W2">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14404,27 +14340,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B5:C32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>1</v>
       </c>
@@ -14432,7 +14369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -14440,13 +14377,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>1</v>
       </c>
@@ -14454,7 +14391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -14462,7 +14399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -14470,7 +14407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -14478,7 +14415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -14486,13 +14423,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>1</v>
       </c>
@@ -14500,7 +14437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -14508,7 +14445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -14516,7 +14453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>4</v>
       </c>
@@ -14524,7 +14461,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>5</v>
       </c>
@@ -14532,7 +14469,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>6</v>
       </c>
@@ -14540,7 +14477,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>7</v>
       </c>
@@ -14548,17 +14485,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>1</v>
       </c>
@@ -14566,7 +14503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>2</v>
       </c>
@@ -14574,17 +14511,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>1</v>
       </c>
@@ -14592,7 +14529,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>2</v>
       </c>
@@ -14600,7 +14537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>3</v>
       </c>
@@ -14608,7 +14545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -14623,28 +14560,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -14655,7 +14593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -14669,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -14683,7 +14621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -14697,7 +14635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14711,7 +14649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -14725,7 +14663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -14742,7 +14680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -14759,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -14776,7 +14714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -14793,7 +14731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -14810,7 +14748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -14827,7 +14765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -14844,7 +14782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -14861,7 +14799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -14878,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -14895,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -14912,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -14929,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -14946,7 +14884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -14963,7 +14901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -14980,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -15004,6 +14942,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -15011,18 +14950,18 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -15030,7 +14969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -15044,7 +14983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15058,7 +14997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -15074,7 +15013,7 @@
         <v>base</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -15086,7 +15025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -15098,7 +15037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -15110,7 +15049,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -15122,7 +15061,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -15134,7 +15073,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2025</v>
       </c>
@@ -15146,7 +15085,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2026</v>
       </c>
@@ -15158,7 +15097,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2027</v>
       </c>
@@ -15170,7 +15109,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2028</v>
       </c>
@@ -15182,7 +15121,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2029</v>
       </c>
@@ -15194,7 +15133,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2030</v>
       </c>
@@ -15203,7 +15142,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2031</v>
       </c>
@@ -15212,7 +15151,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2032</v>
       </c>
@@ -15221,7 +15160,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2033</v>
       </c>
@@ -15230,7 +15169,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -15239,7 +15178,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2035</v>
       </c>
@@ -15248,7 +15187,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2036</v>
       </c>
@@ -15257,7 +15196,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2037</v>
       </c>
@@ -15266,7 +15205,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2038</v>
       </c>
@@ -15275,7 +15214,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2039</v>
       </c>
@@ -15284,7 +15223,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2040</v>
       </c>
@@ -15293,7 +15232,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2041</v>
       </c>
@@ -15302,7 +15241,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2042</v>
       </c>
@@ -15311,7 +15250,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2043</v>
       </c>
@@ -15320,7 +15259,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2044</v>
       </c>
@@ -15329,7 +15268,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2045</v>
       </c>
@@ -15338,7 +15277,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2046</v>
       </c>
@@ -15347,7 +15286,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2047</v>
       </c>
@@ -15356,7 +15295,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2048</v>
       </c>
@@ -15365,7 +15304,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2049</v>
       </c>
@@ -15374,7 +15313,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2050</v>
       </c>
@@ -15390,27 +15329,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>61</v>
@@ -15419,7 +15359,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>62</v>
       </c>
@@ -15427,7 +15367,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -15435,7 +15375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -15450,7 +15390,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -15499,7 +15439,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -15551,7 +15491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
@@ -15561,46 +15501,46 @@
         <v>32</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:Q8" si="1">H8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
         <v>34</v>
@@ -15648,7 +15588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="F10" s="11" t="s">
         <v>37</v>
@@ -15696,7 +15636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
@@ -15746,7 +15686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="15" t="s">
@@ -15792,7 +15732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="15" t="s">
@@ -15838,7 +15778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
         <v>23</v>
@@ -15886,7 +15826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" t="s">
         <v>24</v>
@@ -15934,7 +15874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" t="s">
         <v>186</v>
@@ -15982,16 +15922,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
     </row>
   </sheetData>
@@ -16001,15 +15941,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA68A44C-CCAD-44B6-B62A-200AFD1681B6}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -16036,7 +15977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
       <c r="D2" s="16">
         <v>1.6</v>
@@ -16060,7 +16001,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -16094,13 +16035,13 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -16132,7 +16073,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>2020</v>
       </c>
@@ -16206,7 +16147,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>149</v>
       </c>
@@ -16255,7 +16196,7 @@
         <v>1.4581392057131581</v>
       </c>
       <c r="S8" s="18">
-        <f t="shared" ref="S8:Z16" si="3">R8+$P8</f>
+        <f t="shared" ref="S8:U9" si="3">R8+$P8</f>
         <v>1.4581392057131581</v>
       </c>
       <c r="T8" s="18">
@@ -16297,7 +16238,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>150</v>
       </c>
@@ -16390,7 +16331,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>192</v>
       </c>
@@ -16486,7 +16427,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>151</v>
       </c>
@@ -16576,7 +16517,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
@@ -16666,7 +16607,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>153</v>
       </c>
@@ -16762,7 +16703,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>154</v>
       </c>
@@ -16858,7 +16799,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>155</v>
       </c>
@@ -16954,7 +16895,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>156</v>
       </c>
@@ -17050,7 +16991,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>157</v>
       </c>
@@ -17099,7 +17040,7 @@
         <v>1.0230381934925115</v>
       </c>
       <c r="S17" s="18">
-        <f t="shared" ref="S17:Z19" si="10">R17+$P16</f>
+        <f t="shared" ref="S17:U19" si="10">R17+$P16</f>
         <v>0.92303819349251148</v>
       </c>
       <c r="T17" s="18">
@@ -17143,7 +17084,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>158</v>
       </c>
@@ -17234,7 +17175,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>159</v>
       </c>
@@ -17325,7 +17266,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>160</v>
       </c>
@@ -17386,7 +17327,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>161</v>
       </c>
@@ -17447,7 +17388,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>162</v>
       </c>
@@ -17508,7 +17449,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>163</v>
       </c>
@@ -17569,7 +17510,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -17630,7 +17571,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
@@ -17691,7 +17632,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>193</v>
       </c>
@@ -17752,7 +17693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>188</v>
       </c>
@@ -17813,7 +17754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
@@ -17874,7 +17815,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>164</v>
       </c>
@@ -17935,7 +17876,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>165</v>
       </c>
@@ -17996,7 +17937,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>93</v>
       </c>
@@ -18057,7 +17998,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>166</v>
       </c>
@@ -18118,7 +18059,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>167</v>
       </c>
@@ -18179,7 +18120,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>168</v>
       </c>
@@ -18240,7 +18181,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
@@ -18301,7 +18242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>169</v>
       </c>
@@ -18362,7 +18303,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -18423,7 +18364,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>170</v>
       </c>
@@ -18484,7 +18425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>171</v>
       </c>
@@ -18545,7 +18486,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>172</v>
       </c>
@@ -18606,7 +18547,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>173</v>
       </c>
@@ -18667,7 +18608,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>174</v>
       </c>
@@ -18728,7 +18669,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>175</v>
       </c>
@@ -18789,7 +18730,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>176</v>
       </c>
@@ -18850,7 +18791,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>143</v>
       </c>
@@ -18911,7 +18852,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>177</v>
       </c>
@@ -18972,7 +18913,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>178</v>
       </c>
@@ -19033,7 +18974,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>144</v>
       </c>
@@ -19094,7 +19035,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>145</v>
       </c>
@@ -19155,7 +19096,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>179</v>
       </c>
@@ -19210,7 +19151,7 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -19236,7 +19177,7 @@
       <c r="AC51" s="13"/>
       <c r="AD51" s="13"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -19262,7 +19203,7 @@
       <c r="AC52" s="13"/>
       <c r="AD52" s="13"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -19288,7 +19229,7 @@
       <c r="AC53" s="13"/>
       <c r="AD53" s="13"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -19314,7 +19255,7 @@
       <c r="AC54" s="13"/>
       <c r="AD54" s="13"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -19340,7 +19281,7 @@
       <c r="AC55" s="13"/>
       <c r="AD55" s="13"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -19366,7 +19307,7 @@
       <c r="AC56" s="13"/>
       <c r="AD56" s="13"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -19392,7 +19333,7 @@
       <c r="AC57" s="13"/>
       <c r="AD57" s="13"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -19418,7 +19359,7 @@
       <c r="AC58" s="13"/>
       <c r="AD58" s="13"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -19444,7 +19385,7 @@
       <c r="AC59" s="13"/>
       <c r="AD59" s="13"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -19470,7 +19411,7 @@
       <c r="AC60" s="13"/>
       <c r="AD60" s="13"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -19496,7 +19437,7 @@
       <c r="AC61" s="13"/>
       <c r="AD61" s="13"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -19522,7 +19463,7 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -19548,7 +19489,7 @@
       <c r="AC63" s="13"/>
       <c r="AD63" s="13"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -19575,7 +19516,7 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -19602,7 +19543,7 @@
       <c r="AC65" s="13"/>
       <c r="AD65" s="13"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -19629,7 +19570,7 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -19656,7 +19597,7 @@
       <c r="AC67" s="13"/>
       <c r="AD67" s="13"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -19683,7 +19624,7 @@
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -19710,7 +19651,7 @@
       <c r="AC69" s="13"/>
       <c r="AD69" s="13"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -19739,242 +19680,242 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I64:I70 K64:N70 L8:N63 T8:U8 AA8:AD8 AA9:AB17 AD9:AD17 T17:U18 T10:U15 T20:AD70 C8:E70 G8:J63 AA18:AD19">
-    <cfRule type="cellIs" dxfId="101" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="77" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8 T18:U18 AA8:AD8 AA9:AB17 AD9:AD17 T20:AD70 AA18:AD19">
-    <cfRule type="cellIs" dxfId="100" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="76" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64:J70">
-    <cfRule type="cellIs" dxfId="99" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="75" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:H70">
-    <cfRule type="cellIs" dxfId="98" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="74" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="97" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="68" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:O1 S1 Q1">
-    <cfRule type="cellIs" dxfId="96" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="73" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="95" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="72" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="94" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="71" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1 R1">
-    <cfRule type="cellIs" dxfId="93" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="cellIs" dxfId="92" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="69" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8 G8:J8">
-    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="66" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="90" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="65" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="89" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 I8">
-    <cfRule type="cellIs" dxfId="88" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="87" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="62" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="86" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:D56 C62:D63 C58:D59 C30:D31 C9:D28 G9:J28 G30:J31 G58:J59 G62:J63 G55:J56 C33:D50 G33:J50">
-    <cfRule type="cellIs" dxfId="85" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="52" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29 G29:J29">
-    <cfRule type="cellIs" dxfId="84" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="51" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:D32 G32:J32">
-    <cfRule type="cellIs" dxfId="83" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="50" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:D51 G51:J51">
-    <cfRule type="cellIs" dxfId="82" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:D53 G52:J53">
-    <cfRule type="cellIs" dxfId="81" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:D54 G54:J54">
-    <cfRule type="cellIs" dxfId="80" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="47" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:D57 G57:J57">
-    <cfRule type="cellIs" dxfId="79" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="46" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:D60 G60:J60">
-    <cfRule type="cellIs" dxfId="78" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:D61 G61:J61">
-    <cfRule type="cellIs" dxfId="77" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="44" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:G70">
-    <cfRule type="cellIs" dxfId="76" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="43" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="75" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="42" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="74" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="41" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E56 E62:E63 E58:E59 E30:E31 E9:E28 E33:E50">
-    <cfRule type="cellIs" dxfId="73" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="40" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="72" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="71" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="70" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="cellIs" dxfId="69" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="36" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="68" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="66" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="33" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="65" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:U16">
-    <cfRule type="cellIs" dxfId="62" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="27" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F63">
-    <cfRule type="cellIs" dxfId="59" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="25" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F53">
-    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="56" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="16" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:F59 F62:F63 F55:F56">
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="54" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20014,27 +19955,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:Z8 V17:Z18 V10:Z15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:Z8 V18:Z18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16:Z16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19:Z19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19:Z19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20044,6 +19985,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20053,14 +19995,14 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -20068,7 +20010,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="str">
         <f>Closures!H6</f>
         <v>base</v>
@@ -20110,7 +20052,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>2020</v>
       </c>
@@ -20191,7 +20133,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>149</v>
       </c>
@@ -20275,7 +20217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>150</v>
       </c>
@@ -20360,7 +20302,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>192</v>
       </c>
@@ -20445,7 +20387,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>151</v>
       </c>
@@ -20530,7 +20472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
@@ -20615,7 +20557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>153</v>
       </c>
@@ -20700,7 +20642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>154</v>
       </c>
@@ -20785,7 +20727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>155</v>
       </c>
@@ -20870,7 +20812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>156</v>
       </c>
@@ -20955,7 +20897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>157</v>
       </c>
@@ -21040,7 +20982,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>158</v>
       </c>
@@ -21125,7 +21067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>159</v>
       </c>
@@ -21210,7 +21152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>160</v>
       </c>
@@ -21295,7 +21237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>161</v>
       </c>
@@ -21380,7 +21322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>162</v>
       </c>
@@ -21465,7 +21407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>163</v>
       </c>
@@ -21550,7 +21492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -21635,7 +21577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
@@ -21720,7 +21662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>193</v>
       </c>
@@ -21805,7 +21747,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>188</v>
       </c>
@@ -21890,7 +21832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
@@ -21975,7 +21917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>164</v>
       </c>
@@ -22060,7 +22002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>165</v>
       </c>
@@ -22156,7 +22098,7 @@
         <v>eps</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>93</v>
       </c>
@@ -22241,7 +22183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>166</v>
       </c>
@@ -22326,7 +22268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>167</v>
       </c>
@@ -22411,7 +22353,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>168</v>
       </c>
@@ -22496,7 +22438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
@@ -22581,7 +22523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>169</v>
       </c>
@@ -22666,7 +22608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -22751,7 +22693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>170</v>
       </c>
@@ -22836,7 +22778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>171</v>
       </c>
@@ -22921,7 +22863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>172</v>
       </c>
@@ -23006,7 +22948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>173</v>
       </c>
@@ -23091,7 +23033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>174</v>
       </c>
@@ -23176,7 +23118,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>175</v>
       </c>
@@ -23261,7 +23203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>176</v>
       </c>
@@ -23346,7 +23288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>143</v>
       </c>
@@ -23431,7 +23373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>177</v>
       </c>
@@ -23516,7 +23458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>178</v>
       </c>
@@ -23601,7 +23543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>144</v>
       </c>
@@ -23686,7 +23628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>145</v>
       </c>
@@ -23771,7 +23713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>179</v>
       </c>
@@ -23856,7 +23798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -23880,7 +23822,7 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -23904,7 +23846,7 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -23928,7 +23870,7 @@
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -23952,7 +23894,7 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -23976,7 +23918,7 @@
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -24000,7 +23942,7 @@
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -24026,7 +23968,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:C50 D7:L50 C10:L57 R8:AA57">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24036,6 +23978,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -24045,14 +23988,14 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -24060,7 +24003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -24102,7 +24045,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -24184,7 +24127,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -24262,7 +24205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>190</v>
       </c>
@@ -24340,7 +24283,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -24418,7 +24361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -24496,7 +24439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -24574,7 +24517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -24652,7 +24595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -24675,7 +24618,7 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -24698,7 +24641,7 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -24723,27 +24666,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7:K7 Q14:Z16 B14:K16 B8:K12 Q8:Z12">
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:K13 Q13:Z13">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Z13">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:Z13">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:Z13">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24753,6 +24696,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -24762,14 +24706,14 @@
       <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -24777,7 +24721,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -24819,7 +24763,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -24901,7 +24845,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
         <f>FacProd!A8</f>
         <v>flab-n</v>
@@ -24980,7 +24924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
         <f>FacProd!A9</f>
         <v>flab-p</v>
@@ -25059,7 +25003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="str">
         <f>FacProd!A10</f>
         <v>flab-s</v>
@@ -25138,7 +25082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -25216,7 +25160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -25296,37 +25240,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7:K7 B8:K11 Q8:Z11">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Z12 B12:K12">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Z12">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:Z12">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:Z12">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:Z12">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:Z12">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CGE/2simulation.xlsx
+++ b/CGE/2simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\KENTIMGE\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C30EAC-3147-457D-B8A3-377A294138F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F21C78-FD97-415D-A7B2-3278A0B507F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFPgr (2)" sheetId="19" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -814,7 +814,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -840,13 +840,13 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2239,7 +2239,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Notes"/>
@@ -2602,16 +2602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23C51CB-0A5D-4B56-9E7E-535AC72724A0}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD70"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C2" s="16"/>
       <c r="D2" s="16">
         <v>1</v>
@@ -2659,7 +2658,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2689,13 +2688,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>2020</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>149</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>150</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>192</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>151</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>153</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>154</v>
       </c>
@@ -3387,7 +3386,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>155</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>156</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>157</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>158</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>159</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>160</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>161</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>162</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>163</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>193</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>188</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>164</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>165</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>93</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>166</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>167</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>168</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>169</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>170</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>171</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>172</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>173</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>174</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>175</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>176</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>143</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>177</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>178</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>144</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>145</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>179</v>
       </c>
@@ -5544,7 +5543,7 @@
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -5568,7 +5567,7 @@
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -5592,7 +5591,7 @@
       <c r="AA52" s="13"/>
       <c r="AB52" s="13"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -5616,7 +5615,7 @@
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5640,7 +5639,7 @@
       <c r="AA54" s="13"/>
       <c r="AB54" s="13"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5664,7 +5663,7 @@
       <c r="AA55" s="13"/>
       <c r="AB55" s="13"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -5688,7 +5687,7 @@
       <c r="AA56" s="13"/>
       <c r="AB56" s="13"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -5712,7 +5711,7 @@
       <c r="AA57" s="13"/>
       <c r="AB57" s="13"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5736,7 +5735,7 @@
       <c r="AA58" s="13"/>
       <c r="AB58" s="13"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5760,7 +5759,7 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -5784,7 +5783,7 @@
       <c r="AA60" s="13"/>
       <c r="AB60" s="13"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -5808,7 +5807,7 @@
       <c r="AA61" s="13"/>
       <c r="AB61" s="13"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -5832,7 +5831,7 @@
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -5856,7 +5855,7 @@
       <c r="AA63" s="13"/>
       <c r="AB63" s="13"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -5881,7 +5880,7 @@
       <c r="AA64" s="13"/>
       <c r="AB64" s="13"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -5906,7 +5905,7 @@
       <c r="AA65" s="13"/>
       <c r="AB65" s="13"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -5931,7 +5930,7 @@
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -5956,7 +5955,7 @@
       <c r="AA67" s="13"/>
       <c r="AB67" s="13"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -5981,7 +5980,7 @@
       <c r="AA68" s="13"/>
       <c r="AB68" s="13"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -6006,7 +6005,7 @@
       <c r="AA69" s="13"/>
       <c r="AB69" s="13"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -6248,7 +6247,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6258,14 +6256,14 @@
       <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -6273,7 +6271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -6315,7 +6313,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -6397,7 +6395,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="str">
         <f>FacSup!A8</f>
         <v>flab-n</v>
@@ -6467,7 +6465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f>FacSup!A9</f>
         <v>flab-p</v>
@@ -6537,7 +6535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="str">
         <f>FacSup!A10</f>
         <v>flab-s</v>
@@ -6607,7 +6605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -6676,7 +6674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -6797,7 +6795,6 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6807,14 +6804,14 @@
       <selection pane="bottomRight" activeCell="A51" sqref="A51:A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -6822,7 +6819,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -6864,7 +6861,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -6946,7 +6943,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="str">
         <f>TFP!A8</f>
         <v>amaiz</v>
@@ -7022,7 +7019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f>TFP!A9</f>
         <v>arice</v>
@@ -7098,7 +7095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="str">
         <f>TFP!A10</f>
         <v>aocer</v>
@@ -7174,7 +7171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f>TFP!A11</f>
         <v>apuls</v>
@@ -7250,7 +7247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="str">
         <f>TFP!A12</f>
         <v>aoils</v>
@@ -7326,7 +7323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f>TFP!A13</f>
         <v>aroot</v>
@@ -7402,7 +7399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="str">
         <f>TFP!A14</f>
         <v>avege</v>
@@ -7478,7 +7475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f>TFP!A15</f>
         <v>asugr</v>
@@ -7554,7 +7551,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="str">
         <f>TFP!A16</f>
         <v>atoba</v>
@@ -7630,7 +7627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f>TFP!A17</f>
         <v>acott</v>
@@ -7706,7 +7703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="str">
         <f>TFP!A18</f>
         <v>afrui</v>
@@ -7782,7 +7779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f>TFP!A19</f>
         <v>acoff</v>
@@ -7858,7 +7855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="str">
         <f>TFP!A20</f>
         <v>aocrp</v>
@@ -7934,7 +7931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f>TFP!A21</f>
         <v>acatt</v>
@@ -8010,7 +8007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="str">
         <f>TFP!A22</f>
         <v>apoul</v>
@@ -8086,7 +8083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f>TFP!A23</f>
         <v>aoliv</v>
@@ -8162,7 +8159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="str">
         <f>TFP!A24</f>
         <v>afore</v>
@@ -8238,7 +8235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="str">
         <f>TFP!A25</f>
         <v>afish</v>
@@ -8314,7 +8311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="str">
         <f>TFP!A26</f>
         <v>amine</v>
@@ -8390,7 +8387,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="str">
         <f>TFP!A27</f>
         <v>angas</v>
@@ -8466,7 +8463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="str">
         <f>TFP!A28</f>
         <v>afood</v>
@@ -8542,7 +8539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="str">
         <f>TFP!A29</f>
         <v>abeve</v>
@@ -8618,7 +8615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="str">
         <f>TFP!A30</f>
         <v>atext</v>
@@ -8695,7 +8692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="str">
         <f>TFP!A31</f>
         <v>awood</v>
@@ -8771,7 +8768,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="str">
         <f>TFP!A32</f>
         <v>achem</v>
@@ -8847,7 +8844,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="str">
         <f>TFP!A33</f>
         <v>anmet</v>
@@ -8923,7 +8920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="str">
         <f>TFP!A34</f>
         <v>ametl</v>
@@ -8999,7 +8996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="str">
         <f>TFP!A35</f>
         <v>amach</v>
@@ -9075,7 +9072,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="str">
         <f>TFP!A36</f>
         <v>aoman</v>
@@ -9151,7 +9148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="str">
         <f>TFP!A37</f>
         <v>aelec</v>
@@ -9227,7 +9224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="str">
         <f>TFP!A38</f>
         <v>awatr</v>
@@ -9303,7 +9300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="str">
         <f>TFP!A39</f>
         <v>acons</v>
@@ -9379,7 +9376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="str">
         <f>TFP!A40</f>
         <v>atrad</v>
@@ -9455,7 +9452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="str">
         <f>TFP!A41</f>
         <v>atran</v>
@@ -9531,7 +9528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="str">
         <f>TFP!A42</f>
         <v>ahotl</v>
@@ -9607,7 +9604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="str">
         <f>TFP!A43</f>
         <v>acomm</v>
@@ -9683,7 +9680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="str">
         <f>TFP!A44</f>
         <v>afsrv</v>
@@ -9759,7 +9756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="str">
         <f>TFP!A45</f>
         <v>areal</v>
@@ -9835,7 +9832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="str">
         <f>TFP!A46</f>
         <v>absrv</v>
@@ -9911,7 +9908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="str">
         <f>TFP!A47</f>
         <v>apadm</v>
@@ -9987,7 +9984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="str">
         <f>TFP!A48</f>
         <v>aeduc</v>
@@ -10063,7 +10060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="str">
         <f>TFP!A49</f>
         <v>aheal</v>
@@ -10139,7 +10136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="str">
         <f>TFP!A50</f>
         <v>aosrv</v>
@@ -10215,7 +10212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -10239,7 +10236,7 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -10263,7 +10260,7 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -10287,7 +10284,7 @@
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -10311,7 +10308,7 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -10335,7 +10332,7 @@
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -10359,7 +10356,7 @@
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -10395,7 +10392,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10405,17 +10401,17 @@
       <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -10423,7 +10419,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -10465,7 +10461,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -10547,7 +10543,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -10628,7 +10624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10709,7 +10705,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -10790,7 +10786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -10871,7 +10867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -10952,7 +10948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -11033,7 +11029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -11114,7 +11110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -11194,7 +11190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -11326,7 +11322,6 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11336,14 +11331,14 @@
       <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -11351,7 +11346,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -11393,7 +11388,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -11475,7 +11470,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>194</v>
       </c>
@@ -11554,7 +11549,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>195</v>
       </c>
@@ -11634,7 +11629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>196</v>
       </c>
@@ -11714,7 +11709,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>197</v>
       </c>
@@ -11794,7 +11789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>198</v>
       </c>
@@ -11874,7 +11869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>180</v>
       </c>
@@ -11954,7 +11949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>181</v>
       </c>
@@ -12034,7 +12029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>182</v>
       </c>
@@ -12113,7 +12108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>183</v>
       </c>
@@ -12192,7 +12187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>184</v>
       </c>
@@ -12284,21 +12279,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FE25D5-3358-4861-989A-5151273C22C6}">
-  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AZ27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>212</v>
       </c>
@@ -12396,7 +12390,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>213</v>
       </c>
@@ -12494,13 +12488,13 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -12508,7 +12502,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>2020</v>
       </c>
@@ -12652,7 +12646,7 @@
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>194</v>
       </c>
@@ -12785,7 +12779,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>195</v>
       </c>
@@ -12918,7 +12912,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>196</v>
       </c>
@@ -13051,7 +13045,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>197</v>
       </c>
@@ -13184,7 +13178,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>198</v>
       </c>
@@ -13317,7 +13311,7 @@
         <v>0.22807261916626409</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>180</v>
       </c>
@@ -13450,7 +13444,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>181</v>
       </c>
@@ -13583,7 +13577,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>182</v>
       </c>
@@ -13716,7 +13710,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>183</v>
       </c>
@@ -13849,7 +13843,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>184</v>
       </c>
@@ -13982,7 +13976,7 @@
         <v>2.9762695357541169</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -14016,7 +14010,7 @@
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -14050,7 +14044,7 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -14084,7 +14078,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -14118,7 +14112,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -14152,7 +14146,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -14186,7 +14180,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -14220,7 +14214,7 @@
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -14254,7 +14248,7 @@
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -14288,7 +14282,7 @@
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -14340,28 +14334,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="B5:C32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>1</v>
       </c>
@@ -14369,7 +14362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -14377,13 +14370,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>1</v>
       </c>
@@ -14391,7 +14384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -14399,7 +14392,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -14407,7 +14400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -14415,7 +14408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -14423,13 +14416,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>1</v>
       </c>
@@ -14437,7 +14430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -14445,7 +14438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -14453,7 +14446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>4</v>
       </c>
@@ -14461,7 +14454,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>5</v>
       </c>
@@ -14469,7 +14462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>6</v>
       </c>
@@ -14477,7 +14470,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>7</v>
       </c>
@@ -14485,17 +14478,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>1</v>
       </c>
@@ -14503,7 +14496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>2</v>
       </c>
@@ -14511,17 +14504,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>1</v>
       </c>
@@ -14529,7 +14522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>2</v>
       </c>
@@ -14537,7 +14530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>3</v>
       </c>
@@ -14545,7 +14538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -14560,29 +14553,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -14593,7 +14585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -14607,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -14621,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -14635,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14649,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -14663,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -14680,7 +14672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -14697,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -14714,7 +14706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -14731,7 +14723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -14748,7 +14740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -14765,7 +14757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -14782,7 +14774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -14799,7 +14791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -14816,7 +14808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -14833,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -14850,7 +14842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -14867,7 +14859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -14884,7 +14876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -14901,7 +14893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -14918,7 +14910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -14942,7 +14934,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14950,18 +14941,18 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -14969,7 +14960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -14983,7 +14974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14997,7 +14988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -15013,7 +15004,7 @@
         <v>base</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -15025,7 +15016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -15037,7 +15028,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -15049,7 +15040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -15061,7 +15052,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -15073,7 +15064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2025</v>
       </c>
@@ -15085,7 +15076,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2026</v>
       </c>
@@ -15097,7 +15088,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2027</v>
       </c>
@@ -15109,7 +15100,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2028</v>
       </c>
@@ -15121,7 +15112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2029</v>
       </c>
@@ -15133,7 +15124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2030</v>
       </c>
@@ -15142,7 +15133,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2031</v>
       </c>
@@ -15151,7 +15142,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2032</v>
       </c>
@@ -15160,7 +15151,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2033</v>
       </c>
@@ -15169,7 +15160,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -15178,7 +15169,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2035</v>
       </c>
@@ -15187,7 +15178,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2036</v>
       </c>
@@ -15196,7 +15187,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2037</v>
       </c>
@@ -15205,7 +15196,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2038</v>
       </c>
@@ -15214,7 +15205,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2039</v>
       </c>
@@ -15223,7 +15214,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2040</v>
       </c>
@@ -15232,7 +15223,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2041</v>
       </c>
@@ -15241,7 +15232,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2042</v>
       </c>
@@ -15250,7 +15241,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2043</v>
       </c>
@@ -15259,7 +15250,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2044</v>
       </c>
@@ -15268,7 +15259,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2045</v>
       </c>
@@ -15277,7 +15268,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2046</v>
       </c>
@@ -15286,7 +15277,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2047</v>
       </c>
@@ -15295,7 +15286,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2048</v>
       </c>
@@ -15304,7 +15295,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2049</v>
       </c>
@@ -15313,7 +15304,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2050</v>
       </c>
@@ -15329,28 +15320,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>61</v>
@@ -15359,7 +15349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>62</v>
       </c>
@@ -15367,7 +15357,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -15375,7 +15365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -15390,7 +15380,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -15439,7 +15429,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -15491,7 +15481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
@@ -15501,46 +15491,46 @@
         <v>32</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:Q8" si="1">H8</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
         <v>34</v>
@@ -15588,7 +15578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E10" s="6"/>
       <c r="F10" s="11" t="s">
         <v>37</v>
@@ -15636,7 +15626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
@@ -15686,7 +15676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="15" t="s">
@@ -15732,7 +15722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="15" t="s">
@@ -15778,7 +15768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
         <v>23</v>
@@ -15826,7 +15816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E15" s="7"/>
       <c r="F15" t="s">
         <v>24</v>
@@ -15874,7 +15864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E16" s="7"/>
       <c r="F16" t="s">
         <v>186</v>
@@ -15922,16 +15912,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="7"/>
     </row>
   </sheetData>
@@ -15941,16 +15931,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA68A44C-CCAD-44B6-B62A-200AFD1681B6}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -15977,7 +15966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C2" s="16"/>
       <c r="D2" s="16">
         <v>1.6</v>
@@ -16001,7 +15990,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -16019,29 +16008,28 @@
         <v>1.8</v>
       </c>
       <c r="G3" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H3" s="16">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
+        <f>G3</f>
+        <v>1.6</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
+        <f t="shared" ref="I3:J3" si="2">H3</f>
+        <v>1.6</v>
       </c>
       <c r="J3" s="16">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -16073,7 +16061,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>2020</v>
       </c>
@@ -16117,23 +16105,23 @@
         <v>2023</v>
       </c>
       <c r="V7">
-        <f t="shared" ref="V7:Z7" si="2">F7</f>
+        <f t="shared" ref="V7:Z7" si="3">F7</f>
         <v>2026</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2030</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2035</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2040</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2045</v>
       </c>
       <c r="AA7" s="8"/>
@@ -16147,7 +16135,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>149</v>
       </c>
@@ -16172,19 +16160,19 @@
       </c>
       <c r="G8" s="13">
         <f>VLOOKUP(VLOOKUP($A8,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H8" s="13">
         <f>VLOOKUP(VLOOKUP($A8,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I8" s="13">
         <f>VLOOKUP(VLOOKUP($A8,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J8" s="13">
         <f>VLOOKUP(VLOOKUP($A8,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -16196,35 +16184,35 @@
         <v>1.4581392057131581</v>
       </c>
       <c r="S8" s="18">
-        <f t="shared" ref="S8:U9" si="3">R8+$P8</f>
+        <f t="shared" ref="S8:U9" si="4">R8+$P8</f>
         <v>1.4581392057131581</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4581392057131581</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4581392057131581</v>
       </c>
       <c r="V8" s="18">
-        <f t="shared" ref="V8:V16" si="4">U8+$P8</f>
+        <f t="shared" ref="V8:V16" si="5">U8+$P8</f>
         <v>1.4581392057131581</v>
       </c>
       <c r="W8" s="18">
-        <f t="shared" ref="W8:W16" si="5">V8+$P8</f>
+        <f t="shared" ref="W8:W16" si="6">V8+$P8</f>
         <v>1.4581392057131581</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" ref="X8:X16" si="6">W8+$P8</f>
+        <f t="shared" ref="X8:X16" si="7">W8+$P8</f>
         <v>1.4581392057131581</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" ref="Y8:Y16" si="7">X8+$P8</f>
+        <f t="shared" ref="Y8:Y16" si="8">X8+$P8</f>
         <v>1.4581392057131581</v>
       </c>
       <c r="Z8" s="18">
-        <f t="shared" ref="Z8:Z16" si="8">Y8+$P8</f>
+        <f t="shared" ref="Z8:Z16" si="9">Y8+$P8</f>
         <v>1.4581392057131581</v>
       </c>
       <c r="AA8" s="13"/>
@@ -16238,7 +16226,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>150</v>
       </c>
@@ -16263,19 +16251,19 @@
       </c>
       <c r="G9" s="13">
         <f>VLOOKUP(VLOOKUP($A9,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H9" s="13">
         <f>VLOOKUP(VLOOKUP($A9,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I9" s="13">
         <f>VLOOKUP(VLOOKUP($A9,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J9" s="13">
         <f>VLOOKUP(VLOOKUP($A9,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -16291,31 +16279,31 @@
         <v>0.69357308688234931</v>
       </c>
       <c r="T9" s="18">
-        <f t="shared" si="3"/>
-        <v>0.69357308688234931</v>
-      </c>
-      <c r="U9" s="18">
-        <f t="shared" si="3"/>
-        <v>0.69357308688234931</v>
-      </c>
-      <c r="V9" s="18">
         <f t="shared" si="4"/>
         <v>0.69357308688234931</v>
       </c>
-      <c r="W9" s="18">
+      <c r="U9" s="18">
+        <f t="shared" si="4"/>
+        <v>0.69357308688234931</v>
+      </c>
+      <c r="V9" s="18">
         <f t="shared" si="5"/>
         <v>0.69357308688234931</v>
       </c>
+      <c r="W9" s="18">
+        <f t="shared" si="6"/>
+        <v>0.69357308688234931</v>
+      </c>
       <c r="X9" s="18">
-        <f t="shared" si="6"/>
-        <v>0.69357308688234931</v>
-      </c>
-      <c r="Y9" s="18">
         <f t="shared" si="7"/>
         <v>0.69357308688234931</v>
       </c>
+      <c r="Y9" s="18">
+        <f t="shared" si="8"/>
+        <v>0.69357308688234931</v>
+      </c>
       <c r="Z9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.69357308688234931</v>
       </c>
       <c r="AA9" s="13"/>
@@ -16331,7 +16319,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>192</v>
       </c>
@@ -16356,19 +16344,19 @@
       </c>
       <c r="G10" s="13">
         <f>VLOOKUP(VLOOKUP($A10,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H10" s="13">
         <f>VLOOKUP(VLOOKUP($A10,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I10" s="13">
         <f>VLOOKUP(VLOOKUP($A10,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J10" s="13">
         <f>VLOOKUP(VLOOKUP($A10,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -16383,35 +16371,35 @@
         <v>0.50760237713233269</v>
       </c>
       <c r="S10" s="18">
-        <f t="shared" ref="S10:U16" si="9">R10+$P10</f>
+        <f t="shared" ref="S10:U16" si="10">R10+$P10</f>
         <v>0.70760237713233276</v>
       </c>
       <c r="T10" s="18">
+        <f t="shared" si="10"/>
+        <v>0.90760237713233272</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="10"/>
+        <v>1.1076023771323327</v>
+      </c>
+      <c r="V10" s="18">
+        <f t="shared" si="5"/>
+        <v>1.3076023771323326</v>
+      </c>
+      <c r="W10" s="18">
+        <f t="shared" si="6"/>
+        <v>1.5076023771323326</v>
+      </c>
+      <c r="X10" s="18">
+        <f t="shared" si="7"/>
+        <v>1.7076023771323325</v>
+      </c>
+      <c r="Y10" s="18">
+        <f t="shared" si="8"/>
+        <v>1.9076023771323325</v>
+      </c>
+      <c r="Z10" s="18">
         <f t="shared" si="9"/>
-        <v>0.90760237713233272</v>
-      </c>
-      <c r="U10" s="18">
-        <f t="shared" si="9"/>
-        <v>1.1076023771323327</v>
-      </c>
-      <c r="V10" s="18">
-        <f t="shared" si="4"/>
-        <v>1.3076023771323326</v>
-      </c>
-      <c r="W10" s="18">
-        <f t="shared" si="5"/>
-        <v>1.5076023771323326</v>
-      </c>
-      <c r="X10" s="18">
-        <f t="shared" si="6"/>
-        <v>1.7076023771323325</v>
-      </c>
-      <c r="Y10" s="18">
-        <f t="shared" si="7"/>
-        <v>1.9076023771323325</v>
-      </c>
-      <c r="Z10" s="18">
-        <f t="shared" si="8"/>
         <v>2.1076023771323324</v>
       </c>
       <c r="AA10" s="13"/>
@@ -16427,7 +16415,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>151</v>
       </c>
@@ -16452,19 +16440,19 @@
       </c>
       <c r="G11" s="13">
         <f>VLOOKUP(VLOOKUP($A11,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H11" s="13">
         <f>VLOOKUP(VLOOKUP($A11,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I11" s="13">
         <f>VLOOKUP(VLOOKUP($A11,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J11" s="13">
         <f>VLOOKUP(VLOOKUP($A11,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -16476,35 +16464,35 @@
         <v>0.87137494615486677</v>
       </c>
       <c r="S11" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.87137494615486677</v>
       </c>
       <c r="T11" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.87137494615486677</v>
       </c>
       <c r="U11" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.87137494615486677</v>
       </c>
       <c r="V11" s="18">
-        <f t="shared" si="4"/>
-        <v>0.87137494615486677</v>
-      </c>
-      <c r="W11" s="18">
         <f t="shared" si="5"/>
         <v>0.87137494615486677</v>
       </c>
+      <c r="W11" s="18">
+        <f t="shared" si="6"/>
+        <v>0.87137494615486677</v>
+      </c>
       <c r="X11" s="18">
-        <f t="shared" si="6"/>
-        <v>0.87137494615486677</v>
-      </c>
-      <c r="Y11" s="18">
         <f t="shared" si="7"/>
         <v>0.87137494615486677</v>
       </c>
+      <c r="Y11" s="18">
+        <f t="shared" si="8"/>
+        <v>0.87137494615486677</v>
+      </c>
       <c r="Z11" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.87137494615486677</v>
       </c>
       <c r="AA11" s="13"/>
@@ -16517,7 +16505,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
@@ -16542,19 +16530,19 @@
       </c>
       <c r="G12" s="13">
         <f>VLOOKUP(VLOOKUP($A12,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H12" s="13">
         <f>VLOOKUP(VLOOKUP($A12,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I12" s="13">
         <f>VLOOKUP(VLOOKUP($A12,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J12" s="13">
         <f>VLOOKUP(VLOOKUP($A12,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -16566,35 +16554,35 @@
         <v>1.0328069153958706</v>
       </c>
       <c r="S12" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0328069153958706</v>
       </c>
       <c r="T12" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0328069153958706</v>
       </c>
       <c r="U12" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0328069153958706</v>
       </c>
       <c r="V12" s="18">
-        <f t="shared" si="4"/>
-        <v>1.0328069153958706</v>
-      </c>
-      <c r="W12" s="18">
         <f t="shared" si="5"/>
         <v>1.0328069153958706</v>
       </c>
+      <c r="W12" s="18">
+        <f t="shared" si="6"/>
+        <v>1.0328069153958706</v>
+      </c>
       <c r="X12" s="18">
-        <f t="shared" si="6"/>
-        <v>1.0328069153958706</v>
-      </c>
-      <c r="Y12" s="18">
         <f t="shared" si="7"/>
         <v>1.0328069153958706</v>
       </c>
+      <c r="Y12" s="18">
+        <f t="shared" si="8"/>
+        <v>1.0328069153958706</v>
+      </c>
       <c r="Z12" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0328069153958706</v>
       </c>
       <c r="AA12" s="13"/>
@@ -16607,7 +16595,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>153</v>
       </c>
@@ -16632,19 +16620,19 @@
       </c>
       <c r="G13" s="13">
         <f>VLOOKUP(VLOOKUP($A13,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H13" s="13">
         <f>VLOOKUP(VLOOKUP($A13,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I13" s="13">
         <f>VLOOKUP(VLOOKUP($A13,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J13" s="13">
         <f>VLOOKUP(VLOOKUP($A13,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -16659,35 +16647,35 @@
         <v>0.78653312832663469</v>
       </c>
       <c r="S13" s="18">
+        <f t="shared" si="10"/>
+        <v>0.88653312832663467</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="10"/>
+        <v>0.98653312832663465</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="10"/>
+        <v>1.0865331283266346</v>
+      </c>
+      <c r="V13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.1865331283266347</v>
+      </c>
+      <c r="W13" s="18">
+        <f t="shared" si="6"/>
+        <v>1.2865331283266348</v>
+      </c>
+      <c r="X13" s="18">
+        <f t="shared" si="7"/>
+        <v>1.3865331283266349</v>
+      </c>
+      <c r="Y13" s="18">
+        <f t="shared" si="8"/>
+        <v>1.486533128326635</v>
+      </c>
+      <c r="Z13" s="18">
         <f t="shared" si="9"/>
-        <v>0.88653312832663467</v>
-      </c>
-      <c r="T13" s="18">
-        <f t="shared" si="9"/>
-        <v>0.98653312832663465</v>
-      </c>
-      <c r="U13" s="18">
-        <f t="shared" si="9"/>
-        <v>1.0865331283266346</v>
-      </c>
-      <c r="V13" s="18">
-        <f t="shared" si="4"/>
-        <v>1.1865331283266347</v>
-      </c>
-      <c r="W13" s="18">
-        <f t="shared" si="5"/>
-        <v>1.2865331283266348</v>
-      </c>
-      <c r="X13" s="18">
-        <f t="shared" si="6"/>
-        <v>1.3865331283266349</v>
-      </c>
-      <c r="Y13" s="18">
-        <f t="shared" si="7"/>
-        <v>1.486533128326635</v>
-      </c>
-      <c r="Z13" s="18">
-        <f t="shared" si="8"/>
         <v>1.5865331283266351</v>
       </c>
       <c r="AA13" s="13"/>
@@ -16703,7 +16691,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>154</v>
       </c>
@@ -16728,19 +16716,19 @@
       </c>
       <c r="G14" s="13">
         <f>VLOOKUP(VLOOKUP($A14,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H14" s="13">
         <f>VLOOKUP(VLOOKUP($A14,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I14" s="13">
         <f>VLOOKUP(VLOOKUP($A14,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J14" s="13">
         <f>VLOOKUP(VLOOKUP($A14,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -16755,35 +16743,35 @@
         <v>0.84386472122063194</v>
       </c>
       <c r="S14" s="18">
+        <f t="shared" si="10"/>
+        <v>0.94386472122063192</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="10"/>
+        <v>1.043864721220632</v>
+      </c>
+      <c r="U14" s="18">
+        <f t="shared" si="10"/>
+        <v>1.1438647212206321</v>
+      </c>
+      <c r="V14" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2438647212206322</v>
+      </c>
+      <c r="W14" s="18">
+        <f t="shared" si="6"/>
+        <v>1.3438647212206323</v>
+      </c>
+      <c r="X14" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4438647212206324</v>
+      </c>
+      <c r="Y14" s="18">
+        <f t="shared" si="8"/>
+        <v>1.5438647212206325</v>
+      </c>
+      <c r="Z14" s="18">
         <f t="shared" si="9"/>
-        <v>0.94386472122063192</v>
-      </c>
-      <c r="T14" s="18">
-        <f t="shared" si="9"/>
-        <v>1.043864721220632</v>
-      </c>
-      <c r="U14" s="18">
-        <f t="shared" si="9"/>
-        <v>1.1438647212206321</v>
-      </c>
-      <c r="V14" s="18">
-        <f t="shared" si="4"/>
-        <v>1.2438647212206322</v>
-      </c>
-      <c r="W14" s="18">
-        <f t="shared" si="5"/>
-        <v>1.3438647212206323</v>
-      </c>
-      <c r="X14" s="18">
-        <f t="shared" si="6"/>
-        <v>1.4438647212206324</v>
-      </c>
-      <c r="Y14" s="18">
-        <f t="shared" si="7"/>
-        <v>1.5438647212206325</v>
-      </c>
-      <c r="Z14" s="18">
-        <f t="shared" si="8"/>
         <v>1.6438647212206325</v>
       </c>
       <c r="AA14" s="13"/>
@@ -16799,7 +16787,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>155</v>
       </c>
@@ -16824,19 +16812,19 @@
       </c>
       <c r="G15" s="13">
         <f>VLOOKUP(VLOOKUP($A15,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H15" s="13">
         <f>VLOOKUP(VLOOKUP($A15,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I15" s="13">
         <f>VLOOKUP(VLOOKUP($A15,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J15" s="13">
         <f>VLOOKUP(VLOOKUP($A15,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -16851,35 +16839,35 @@
         <v>1.756652991412589</v>
       </c>
       <c r="S15" s="18">
+        <f t="shared" si="10"/>
+        <v>1.5566529914125891</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="10"/>
+        <v>1.3566529914125891</v>
+      </c>
+      <c r="U15" s="18">
+        <f t="shared" si="10"/>
+        <v>1.1566529914125891</v>
+      </c>
+      <c r="V15" s="18">
+        <f t="shared" si="5"/>
+        <v>0.95665299141258919</v>
+      </c>
+      <c r="W15" s="18">
+        <f t="shared" si="6"/>
+        <v>0.75665299141258924</v>
+      </c>
+      <c r="X15" s="18">
+        <f t="shared" si="7"/>
+        <v>0.55665299141258928</v>
+      </c>
+      <c r="Y15" s="18">
+        <f t="shared" si="8"/>
+        <v>0.35665299141258927</v>
+      </c>
+      <c r="Z15" s="18">
         <f t="shared" si="9"/>
-        <v>1.5566529914125891</v>
-      </c>
-      <c r="T15" s="18">
-        <f t="shared" si="9"/>
-        <v>1.3566529914125891</v>
-      </c>
-      <c r="U15" s="18">
-        <f t="shared" si="9"/>
-        <v>1.1566529914125891</v>
-      </c>
-      <c r="V15" s="18">
-        <f t="shared" si="4"/>
-        <v>0.95665299141258919</v>
-      </c>
-      <c r="W15" s="18">
-        <f t="shared" si="5"/>
-        <v>0.75665299141258924</v>
-      </c>
-      <c r="X15" s="18">
-        <f t="shared" si="6"/>
-        <v>0.55665299141258928</v>
-      </c>
-      <c r="Y15" s="18">
-        <f t="shared" si="7"/>
-        <v>0.35665299141258927</v>
-      </c>
-      <c r="Z15" s="18">
-        <f t="shared" si="8"/>
         <v>0.15665299141258926</v>
       </c>
       <c r="AA15" s="13"/>
@@ -16895,7 +16883,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>156</v>
       </c>
@@ -16920,19 +16908,19 @@
       </c>
       <c r="G16" s="13">
         <f>VLOOKUP(VLOOKUP($A16,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H16" s="13">
         <f>VLOOKUP(VLOOKUP($A16,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I16" s="13">
         <f>VLOOKUP(VLOOKUP($A16,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J16" s="13">
         <f>VLOOKUP(VLOOKUP($A16,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -16947,35 +16935,35 @@
         <v>1.0516564749745414</v>
       </c>
       <c r="S16" s="18">
+        <f t="shared" si="10"/>
+        <v>0.95165647497454142</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" si="10"/>
+        <v>0.85165647497454144</v>
+      </c>
+      <c r="U16" s="18">
+        <f t="shared" si="10"/>
+        <v>0.75165647497454147</v>
+      </c>
+      <c r="V16" s="18">
+        <f t="shared" si="5"/>
+        <v>0.65165647497454149</v>
+      </c>
+      <c r="W16" s="18">
+        <f t="shared" si="6"/>
+        <v>0.55165647497454151</v>
+      </c>
+      <c r="X16" s="18">
+        <f t="shared" si="7"/>
+        <v>0.45165647497454153</v>
+      </c>
+      <c r="Y16" s="18">
+        <f t="shared" si="8"/>
+        <v>0.35165647497454156</v>
+      </c>
+      <c r="Z16" s="18">
         <f t="shared" si="9"/>
-        <v>0.95165647497454142</v>
-      </c>
-      <c r="T16" s="18">
-        <f t="shared" si="9"/>
-        <v>0.85165647497454144</v>
-      </c>
-      <c r="U16" s="18">
-        <f t="shared" si="9"/>
-        <v>0.75165647497454147</v>
-      </c>
-      <c r="V16" s="18">
-        <f t="shared" si="4"/>
-        <v>0.65165647497454149</v>
-      </c>
-      <c r="W16" s="18">
-        <f t="shared" si="5"/>
-        <v>0.55165647497454151</v>
-      </c>
-      <c r="X16" s="18">
-        <f t="shared" si="6"/>
-        <v>0.45165647497454153</v>
-      </c>
-      <c r="Y16" s="18">
-        <f t="shared" si="7"/>
-        <v>0.35165647497454156</v>
-      </c>
-      <c r="Z16" s="18">
-        <f t="shared" si="8"/>
         <v>0.25165647497454158</v>
       </c>
       <c r="AA16" s="13"/>
@@ -16991,7 +16979,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>157</v>
       </c>
@@ -17016,19 +17004,19 @@
       </c>
       <c r="G17" s="13">
         <f>VLOOKUP(VLOOKUP($A17,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H17" s="13">
         <f>VLOOKUP(VLOOKUP($A17,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I17" s="13">
         <f>VLOOKUP(VLOOKUP($A17,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J17" s="13">
         <f>VLOOKUP(VLOOKUP($A17,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -17040,35 +17028,35 @@
         <v>1.0230381934925115</v>
       </c>
       <c r="S17" s="18">
-        <f t="shared" ref="S17:U19" si="10">R17+$P16</f>
+        <f t="shared" ref="S17:U19" si="11">R17+$P16</f>
         <v>0.92303819349251148</v>
       </c>
       <c r="T17" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.82303819349251151</v>
       </c>
       <c r="U17" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.72303819349251153</v>
       </c>
       <c r="V17" s="18">
-        <f t="shared" ref="V17:V19" si="11">U17+$P16</f>
+        <f t="shared" ref="V17:V19" si="12">U17+$P16</f>
         <v>0.62303819349251155</v>
       </c>
       <c r="W17" s="18">
-        <f t="shared" ref="W17:W19" si="12">V17+$P16</f>
+        <f t="shared" ref="W17:W19" si="13">V17+$P16</f>
         <v>0.52303819349251157</v>
       </c>
       <c r="X17" s="18">
-        <f t="shared" ref="X17:X19" si="13">W17+$P16</f>
+        <f t="shared" ref="X17:X19" si="14">W17+$P16</f>
         <v>0.42303819349251159</v>
       </c>
       <c r="Y17" s="18">
-        <f t="shared" ref="Y17:Y19" si="14">X17+$P16</f>
+        <f t="shared" ref="Y17:Y19" si="15">X17+$P16</f>
         <v>0.32303819349251162</v>
       </c>
       <c r="Z17" s="18">
-        <f t="shared" ref="Z17:Z19" si="15">Y17+$P16</f>
+        <f t="shared" ref="Z17:Z19" si="16">Y17+$P16</f>
         <v>0.22303819349251161</v>
       </c>
       <c r="AA17" s="13"/>
@@ -17084,7 +17072,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>158</v>
       </c>
@@ -17109,19 +17097,19 @@
       </c>
       <c r="G18" s="13">
         <f>VLOOKUP(VLOOKUP($A18,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H18" s="13">
         <f>VLOOKUP(VLOOKUP($A18,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I18" s="13">
         <f>VLOOKUP(VLOOKUP($A18,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J18" s="13">
         <f>VLOOKUP(VLOOKUP($A18,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -17133,35 +17121,35 @@
         <v>0.58916064718053418</v>
       </c>
       <c r="S18" s="18">
-        <f t="shared" si="10"/>
-        <v>0.58916064718053418</v>
-      </c>
-      <c r="T18" s="18">
-        <f t="shared" si="10"/>
-        <v>0.58916064718053418</v>
-      </c>
-      <c r="U18" s="18">
-        <f t="shared" si="10"/>
-        <v>0.58916064718053418</v>
-      </c>
-      <c r="V18" s="18">
         <f t="shared" si="11"/>
         <v>0.58916064718053418</v>
       </c>
-      <c r="W18" s="18">
+      <c r="T18" s="18">
+        <f t="shared" si="11"/>
+        <v>0.58916064718053418</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="11"/>
+        <v>0.58916064718053418</v>
+      </c>
+      <c r="V18" s="18">
         <f t="shared" si="12"/>
         <v>0.58916064718053418</v>
       </c>
-      <c r="X18" s="18">
+      <c r="W18" s="18">
         <f t="shared" si="13"/>
         <v>0.58916064718053418</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="X18" s="18">
         <f t="shared" si="14"/>
         <v>0.58916064718053418</v>
       </c>
+      <c r="Y18" s="18">
+        <f t="shared" si="15"/>
+        <v>0.58916064718053418</v>
+      </c>
       <c r="Z18" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.58916064718053418</v>
       </c>
       <c r="AA18" s="13"/>
@@ -17175,7 +17163,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>159</v>
       </c>
@@ -17200,19 +17188,19 @@
       </c>
       <c r="G19" s="13">
         <f>VLOOKUP(VLOOKUP($A19,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H19" s="13">
         <f>VLOOKUP(VLOOKUP($A19,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I19" s="13">
         <f>VLOOKUP(VLOOKUP($A19,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J19" s="13">
         <f>VLOOKUP(VLOOKUP($A19,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -17224,35 +17212,35 @@
         <v>0.70351836956525893</v>
       </c>
       <c r="S19" s="18">
-        <f t="shared" si="10"/>
-        <v>0.70351836956525893</v>
-      </c>
-      <c r="T19" s="18">
-        <f t="shared" si="10"/>
-        <v>0.70351836956525893</v>
-      </c>
-      <c r="U19" s="18">
-        <f t="shared" si="10"/>
-        <v>0.70351836956525893</v>
-      </c>
-      <c r="V19" s="18">
         <f t="shared" si="11"/>
         <v>0.70351836956525893</v>
       </c>
-      <c r="W19" s="18">
+      <c r="T19" s="18">
+        <f t="shared" si="11"/>
+        <v>0.70351836956525893</v>
+      </c>
+      <c r="U19" s="18">
+        <f t="shared" si="11"/>
+        <v>0.70351836956525893</v>
+      </c>
+      <c r="V19" s="18">
         <f t="shared" si="12"/>
         <v>0.70351836956525893</v>
       </c>
-      <c r="X19" s="18">
+      <c r="W19" s="18">
         <f t="shared" si="13"/>
         <v>0.70351836956525893</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="X19" s="18">
         <f t="shared" si="14"/>
         <v>0.70351836956525893</v>
       </c>
+      <c r="Y19" s="18">
+        <f t="shared" si="15"/>
+        <v>0.70351836956525893</v>
+      </c>
       <c r="Z19" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.70351836956525893</v>
       </c>
       <c r="AA19" s="13"/>
@@ -17266,7 +17254,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>160</v>
       </c>
@@ -17291,19 +17279,19 @@
       </c>
       <c r="G20" s="13">
         <f>VLOOKUP(VLOOKUP($A20,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H20" s="13">
         <f>VLOOKUP(VLOOKUP($A20,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I20" s="13">
         <f>VLOOKUP(VLOOKUP($A20,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J20" s="13">
         <f>VLOOKUP(VLOOKUP($A20,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -17327,7 +17315,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>161</v>
       </c>
@@ -17352,19 +17340,19 @@
       </c>
       <c r="G21" s="13">
         <f>VLOOKUP(VLOOKUP($A21,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H21" s="13">
         <f>VLOOKUP(VLOOKUP($A21,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I21" s="13">
         <f>VLOOKUP(VLOOKUP($A21,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J21" s="13">
         <f>VLOOKUP(VLOOKUP($A21,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -17388,7 +17376,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>162</v>
       </c>
@@ -17413,19 +17401,19 @@
       </c>
       <c r="G22" s="13">
         <f>VLOOKUP(VLOOKUP($A22,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H22" s="13">
         <f>VLOOKUP(VLOOKUP($A22,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I22" s="13">
         <f>VLOOKUP(VLOOKUP($A22,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J22" s="13">
         <f>VLOOKUP(VLOOKUP($A22,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -17449,7 +17437,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>163</v>
       </c>
@@ -17474,19 +17462,19 @@
       </c>
       <c r="G23" s="13">
         <f>VLOOKUP(VLOOKUP($A23,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H23" s="13">
         <f>VLOOKUP(VLOOKUP($A23,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I23" s="13">
         <f>VLOOKUP(VLOOKUP($A23,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J23" s="13">
         <f>VLOOKUP(VLOOKUP($A23,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -17510,7 +17498,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -17535,19 +17523,19 @@
       </c>
       <c r="G24" s="13">
         <f>VLOOKUP(VLOOKUP($A24,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H24" s="13">
         <f>VLOOKUP(VLOOKUP($A24,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I24" s="13">
         <f>VLOOKUP(VLOOKUP($A24,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J24" s="13">
         <f>VLOOKUP(VLOOKUP($A24,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -17571,7 +17559,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
@@ -17596,19 +17584,19 @@
       </c>
       <c r="G25" s="13">
         <f>VLOOKUP(VLOOKUP($A25,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.9162784114263163</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="H25" s="13">
         <f>VLOOKUP(VLOOKUP($A25,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7704644908550002</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="I25" s="13">
         <f>VLOOKUP(VLOOKUP($A25,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="J25" s="13">
         <f>VLOOKUP(VLOOKUP($A25,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.6246505702836846</v>
+        <v>2.333022729141053</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -17632,7 +17620,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>193</v>
       </c>
@@ -17657,19 +17645,19 @@
       </c>
       <c r="G26" s="13">
         <f>VLOOKUP(VLOOKUP($A26,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.3871461737646986</v>
+        <v>1.1097169390117589</v>
       </c>
       <c r="H26" s="13">
         <f>VLOOKUP(VLOOKUP($A26,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.3177888650764635</v>
+        <v>1.1097169390117589</v>
       </c>
       <c r="I26" s="13">
         <f>VLOOKUP(VLOOKUP($A26,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.2484315563882289</v>
+        <v>1.1097169390117589</v>
       </c>
       <c r="J26" s="13">
         <f>VLOOKUP(VLOOKUP($A26,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.2484315563882289</v>
+        <v>1.1097169390117589</v>
       </c>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -17693,7 +17681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>188</v>
       </c>
@@ -17718,19 +17706,19 @@
       </c>
       <c r="G27" s="13">
         <f>VLOOKUP(VLOOKUP($A27,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.3871461737646986</v>
+        <v>1.1097169390117589</v>
       </c>
       <c r="H27" s="13">
         <f>VLOOKUP(VLOOKUP($A27,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.3177888650764635</v>
+        <v>1.1097169390117589</v>
       </c>
       <c r="I27" s="13">
         <f>VLOOKUP(VLOOKUP($A27,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.2484315563882289</v>
+        <v>1.1097169390117589</v>
       </c>
       <c r="J27" s="13">
         <f>VLOOKUP(VLOOKUP($A27,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.2484315563882289</v>
+        <v>1.1097169390117589</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -17754,7 +17742,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
@@ -17779,19 +17767,19 @@
       </c>
       <c r="G28" s="13">
         <f>VLOOKUP(VLOOKUP($A28,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H28" s="13">
         <f>VLOOKUP(VLOOKUP($A28,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I28" s="13">
         <f>VLOOKUP(VLOOKUP($A28,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J28" s="13">
         <f>VLOOKUP(VLOOKUP($A28,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -17815,7 +17803,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>164</v>
       </c>
@@ -17840,19 +17828,19 @@
       </c>
       <c r="G29" s="13">
         <f>VLOOKUP(VLOOKUP($A29,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H29" s="13">
         <f>VLOOKUP(VLOOKUP($A29,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I29" s="13">
         <f>VLOOKUP(VLOOKUP($A29,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J29" s="13">
         <f>VLOOKUP(VLOOKUP($A29,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -17876,7 +17864,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>165</v>
       </c>
@@ -17901,19 +17889,19 @@
       </c>
       <c r="G30" s="13">
         <f>VLOOKUP(VLOOKUP($A30,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H30" s="13">
         <f>VLOOKUP(VLOOKUP($A30,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I30" s="13">
         <f>VLOOKUP(VLOOKUP($A30,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J30" s="13">
         <f>VLOOKUP(VLOOKUP($A30,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -17937,7 +17925,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>93</v>
       </c>
@@ -17962,19 +17950,19 @@
       </c>
       <c r="G31" s="13">
         <f>VLOOKUP(VLOOKUP($A31,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H31" s="13">
         <f>VLOOKUP(VLOOKUP($A31,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I31" s="13">
         <f>VLOOKUP(VLOOKUP($A31,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J31" s="13">
         <f>VLOOKUP(VLOOKUP($A31,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
@@ -17998,7 +17986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>166</v>
       </c>
@@ -18023,19 +18011,19 @@
       </c>
       <c r="G32" s="13">
         <f>VLOOKUP(VLOOKUP($A32,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H32" s="13">
         <f>VLOOKUP(VLOOKUP($A32,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I32" s="13">
         <f>VLOOKUP(VLOOKUP($A32,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J32" s="13">
         <f>VLOOKUP(VLOOKUP($A32,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -18059,7 +18047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>167</v>
       </c>
@@ -18084,19 +18072,19 @@
       </c>
       <c r="G33" s="13">
         <f>VLOOKUP(VLOOKUP($A33,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H33" s="13">
         <f>VLOOKUP(VLOOKUP($A33,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I33" s="13">
         <f>VLOOKUP(VLOOKUP($A33,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J33" s="13">
         <f>VLOOKUP(VLOOKUP($A33,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -18120,7 +18108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>168</v>
       </c>
@@ -18145,19 +18133,19 @@
       </c>
       <c r="G34" s="13">
         <f>VLOOKUP(VLOOKUP($A34,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H34" s="13">
         <f>VLOOKUP(VLOOKUP($A34,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I34" s="13">
         <f>VLOOKUP(VLOOKUP($A34,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J34" s="13">
         <f>VLOOKUP(VLOOKUP($A34,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -18181,7 +18169,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
@@ -18206,19 +18194,19 @@
       </c>
       <c r="G35" s="13">
         <f>VLOOKUP(VLOOKUP($A35,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H35" s="13">
         <f>VLOOKUP(VLOOKUP($A35,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I35" s="13">
         <f>VLOOKUP(VLOOKUP($A35,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J35" s="13">
         <f>VLOOKUP(VLOOKUP($A35,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -18242,7 +18230,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>169</v>
       </c>
@@ -18267,19 +18255,19 @@
       </c>
       <c r="G36" s="13">
         <f>VLOOKUP(VLOOKUP($A36,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>3.0152047542646652</v>
+        <v>2.4121638034117323</v>
       </c>
       <c r="H36" s="13">
         <f>VLOOKUP(VLOOKUP($A36,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>3.2444445165514315</v>
+        <v>2.7321638034117322</v>
       </c>
       <c r="I36" s="13">
         <f>VLOOKUP(VLOOKUP($A36,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>3.4336842788381987</v>
+        <v>3.052163803411732</v>
       </c>
       <c r="J36" s="13">
         <f>VLOOKUP(VLOOKUP($A36,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>3.7936842788381986</v>
+        <v>3.3721638034117323</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -18303,7 +18291,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -18328,19 +18316,19 @@
       </c>
       <c r="G37" s="13">
         <f>VLOOKUP(VLOOKUP($A37,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.7427498923097335</v>
+        <v>1.394199913847787</v>
       </c>
       <c r="H37" s="13">
         <f>VLOOKUP(VLOOKUP($A37,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.6556123976942467</v>
+        <v>1.394199913847787</v>
       </c>
       <c r="I37" s="13">
         <f>VLOOKUP(VLOOKUP($A37,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.5684749030787601</v>
+        <v>1.394199913847787</v>
       </c>
       <c r="J37" s="13">
         <f>VLOOKUP(VLOOKUP($A37,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.5684749030787601</v>
+        <v>1.394199913847787</v>
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -18364,7 +18352,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>170</v>
       </c>
@@ -18389,19 +18377,19 @@
       </c>
       <c r="G38" s="13">
         <f>VLOOKUP(VLOOKUP($A38,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.7427498923097335</v>
+        <v>1.394199913847787</v>
       </c>
       <c r="H38" s="13">
         <f>VLOOKUP(VLOOKUP($A38,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.6556123976942467</v>
+        <v>1.394199913847787</v>
       </c>
       <c r="I38" s="13">
         <f>VLOOKUP(VLOOKUP($A38,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.5684749030787601</v>
+        <v>1.394199913847787</v>
       </c>
       <c r="J38" s="13">
         <f>VLOOKUP(VLOOKUP($A38,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.5684749030787601</v>
+        <v>1.394199913847787</v>
       </c>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -18425,7 +18413,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>171</v>
       </c>
@@ -18450,19 +18438,19 @@
       </c>
       <c r="G39" s="13">
         <f>VLOOKUP(VLOOKUP($A39,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.0656138307917411</v>
+        <v>1.652491064633393</v>
       </c>
       <c r="H39" s="13">
         <f>VLOOKUP(VLOOKUP($A39,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.9623331392521539</v>
+        <v>1.652491064633393</v>
       </c>
       <c r="I39" s="13">
         <f>VLOOKUP(VLOOKUP($A39,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.8590524477125669</v>
+        <v>1.652491064633393</v>
       </c>
       <c r="J39" s="13">
         <f>VLOOKUP(VLOOKUP($A39,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.8590524477125669</v>
+        <v>1.652491064633393</v>
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -18486,7 +18474,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>172</v>
       </c>
@@ -18511,19 +18499,19 @@
       </c>
       <c r="G40" s="13">
         <f>VLOOKUP(VLOOKUP($A40,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.5730662566532696</v>
+        <v>2.0584530053226158</v>
       </c>
       <c r="H40" s="13">
         <f>VLOOKUP(VLOOKUP($A40,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.6344129438206063</v>
+        <v>2.2184530053226159</v>
       </c>
       <c r="I40" s="13">
         <f>VLOOKUP(VLOOKUP($A40,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.675759630987943</v>
+        <v>2.3784530053226161</v>
       </c>
       <c r="J40" s="13">
         <f>VLOOKUP(VLOOKUP($A40,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.8557596309879432</v>
+        <v>2.5384530053226162</v>
       </c>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
@@ -18547,7 +18535,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>173</v>
       </c>
@@ -18572,19 +18560,19 @@
       </c>
       <c r="G41" s="13">
         <f>VLOOKUP(VLOOKUP($A41,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.6877294424412645</v>
+        <v>2.1501835539530116</v>
       </c>
       <c r="H41" s="13">
         <f>VLOOKUP(VLOOKUP($A41,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7433429703192012</v>
+        <v>2.3101835539530118</v>
       </c>
       <c r="I41" s="13">
         <f>VLOOKUP(VLOOKUP($A41,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.7789564981971386</v>
+        <v>2.4701835539530119</v>
       </c>
       <c r="J41" s="13">
         <f>VLOOKUP(VLOOKUP($A41,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.9589564981971388</v>
+        <v>2.6301835539530121</v>
       </c>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -18608,7 +18596,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>174</v>
       </c>
@@ -18633,19 +18621,19 @@
       </c>
       <c r="G42" s="13">
         <f>VLOOKUP(VLOOKUP($A42,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.5730662566532696</v>
+        <v>2.0584530053226158</v>
       </c>
       <c r="H42" s="13">
         <f>VLOOKUP(VLOOKUP($A42,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.6344129438206063</v>
+        <v>2.2184530053226159</v>
       </c>
       <c r="I42" s="13">
         <f>VLOOKUP(VLOOKUP($A42,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.675759630987943</v>
+        <v>2.3784530053226161</v>
       </c>
       <c r="J42" s="13">
         <f>VLOOKUP(VLOOKUP($A42,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.8557596309879432</v>
+        <v>2.5384530053226162</v>
       </c>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -18669,7 +18657,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>175</v>
       </c>
@@ -18694,19 +18682,19 @@
       </c>
       <c r="G43" s="13">
         <f>VLOOKUP(VLOOKUP($A43,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>2.6877294424412645</v>
+        <v>2.1501835539530116</v>
       </c>
       <c r="H43" s="13">
         <f>VLOOKUP(VLOOKUP($A43,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>2.7433429703192012</v>
+        <v>2.3101835539530118</v>
       </c>
       <c r="I43" s="13">
         <f>VLOOKUP(VLOOKUP($A43,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>2.7789564981971386</v>
+        <v>2.4701835539530119</v>
       </c>
       <c r="J43" s="13">
         <f>VLOOKUP(VLOOKUP($A43,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>2.9589564981971388</v>
+        <v>2.6301835539530121</v>
       </c>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
@@ -18730,7 +18718,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>176</v>
       </c>
@@ -18755,19 +18743,19 @@
       </c>
       <c r="G44" s="13">
         <f>VLOOKUP(VLOOKUP($A44,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.103312949949083</v>
+        <v>0.88265035995926644</v>
       </c>
       <c r="H44" s="13">
         <f>VLOOKUP(VLOOKUP($A44,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>0.85814730245162885</v>
+        <v>0.72265035995926652</v>
       </c>
       <c r="I44" s="13">
         <f>VLOOKUP(VLOOKUP($A44,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>0.6329816549541748</v>
+        <v>0.56265035995926649</v>
       </c>
       <c r="J44" s="13">
         <f>VLOOKUP(VLOOKUP($A44,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>0.45298165495417486</v>
+        <v>0.40265035995926657</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -18791,7 +18779,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>143</v>
       </c>
@@ -18816,19 +18804,19 @@
       </c>
       <c r="G45" s="13">
         <f>VLOOKUP(VLOOKUP($A45,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.0460763869850231</v>
+        <v>0.83686110958801851</v>
       </c>
       <c r="H45" s="13">
         <f>VLOOKUP(VLOOKUP($A45,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>0.80377256763577198</v>
+        <v>0.67686110958801859</v>
       </c>
       <c r="I45" s="13">
         <f>VLOOKUP(VLOOKUP($A45,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>0.58146874828652095</v>
+        <v>0.51686110958801856</v>
       </c>
       <c r="J45" s="13">
         <f>VLOOKUP(VLOOKUP($A45,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>0.4014687482865209</v>
+        <v>0.35686110958801859</v>
       </c>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
@@ -18852,7 +18840,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>177</v>
       </c>
@@ -18877,19 +18865,19 @@
       </c>
       <c r="G46" s="13">
         <f>VLOOKUP(VLOOKUP($A46,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.5133059828251785</v>
+        <v>1.2106447862601428</v>
       </c>
       <c r="H46" s="13">
         <f>VLOOKUP(VLOOKUP($A46,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.0576406836839196</v>
+        <v>0.89064478626014287</v>
       </c>
       <c r="I46" s="13">
         <f>VLOOKUP(VLOOKUP($A46,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>0.64197538454266068</v>
+        <v>0.57064478626014281</v>
       </c>
       <c r="J46" s="13">
         <f>VLOOKUP(VLOOKUP($A46,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>0.28197538454266069</v>
+        <v>0.2506447862601428</v>
       </c>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
@@ -18913,7 +18901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>178</v>
       </c>
@@ -18938,19 +18926,19 @@
       </c>
       <c r="G47" s="13">
         <f>VLOOKUP(VLOOKUP($A47,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.1783212943610684</v>
+        <v>0.94265703548885471</v>
       </c>
       <c r="H47" s="13">
         <f>VLOOKUP(VLOOKUP($A47,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.1194052296430148</v>
+        <v>0.94265703548885471</v>
       </c>
       <c r="I47" s="13">
         <f>VLOOKUP(VLOOKUP($A47,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.0604891649249615</v>
+        <v>0.94265703548885471</v>
       </c>
       <c r="J47" s="13">
         <f>VLOOKUP(VLOOKUP($A47,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.0604891649249615</v>
+        <v>0.94265703548885471</v>
       </c>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
@@ -18974,7 +18962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>144</v>
       </c>
@@ -18999,19 +18987,19 @@
       </c>
       <c r="G48" s="13">
         <f>VLOOKUP(VLOOKUP($A48,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.4070367391305179</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="H48" s="13">
         <f>VLOOKUP(VLOOKUP($A48,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.3366849021739919</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="I48" s="13">
         <f>VLOOKUP(VLOOKUP($A48,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.266333065217466</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="J48" s="13">
         <f>VLOOKUP(VLOOKUP($A48,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.266333065217466</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -19035,7 +19023,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>145</v>
       </c>
@@ -19060,19 +19048,19 @@
       </c>
       <c r="G49" s="13">
         <f>VLOOKUP(VLOOKUP($A49,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.4070367391305179</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="H49" s="13">
         <f>VLOOKUP(VLOOKUP($A49,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.3366849021739919</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="I49" s="13">
         <f>VLOOKUP(VLOOKUP($A49,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.266333065217466</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="J49" s="13">
         <f>VLOOKUP(VLOOKUP($A49,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.266333065217466</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -19096,7 +19084,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>179</v>
       </c>
@@ -19121,19 +19109,19 @@
       </c>
       <c r="G50" s="13">
         <f>VLOOKUP(VLOOKUP($A50,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:W$7),)*G$3</f>
-        <v>1.4070367391305179</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="H50" s="13">
         <f>VLOOKUP(VLOOKUP($A50,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:X$7),)*H$3</f>
-        <v>1.3366849021739919</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="I50" s="13">
         <f>VLOOKUP(VLOOKUP($A50,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Y$7),)*I$3</f>
-        <v>1.266333065217466</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="J50" s="13">
         <f>VLOOKUP(VLOOKUP($A50,$AE$7:$AF$49,2,0),$Q$8:$Z$19,COLUMNS($Q$7:Z$7),)*J$3</f>
-        <v>1.266333065217466</v>
+        <v>1.1256293913044144</v>
       </c>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
@@ -19151,7 +19139,7 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -19177,7 +19165,7 @@
       <c r="AC51" s="13"/>
       <c r="AD51" s="13"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -19203,7 +19191,7 @@
       <c r="AC52" s="13"/>
       <c r="AD52" s="13"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -19229,7 +19217,7 @@
       <c r="AC53" s="13"/>
       <c r="AD53" s="13"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -19255,7 +19243,7 @@
       <c r="AC54" s="13"/>
       <c r="AD54" s="13"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -19281,7 +19269,7 @@
       <c r="AC55" s="13"/>
       <c r="AD55" s="13"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -19307,7 +19295,7 @@
       <c r="AC56" s="13"/>
       <c r="AD56" s="13"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -19333,7 +19321,7 @@
       <c r="AC57" s="13"/>
       <c r="AD57" s="13"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -19359,7 +19347,7 @@
       <c r="AC58" s="13"/>
       <c r="AD58" s="13"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -19385,7 +19373,7 @@
       <c r="AC59" s="13"/>
       <c r="AD59" s="13"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -19411,7 +19399,7 @@
       <c r="AC60" s="13"/>
       <c r="AD60" s="13"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -19437,7 +19425,7 @@
       <c r="AC61" s="13"/>
       <c r="AD61" s="13"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -19463,7 +19451,7 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -19489,7 +19477,7 @@
       <c r="AC63" s="13"/>
       <c r="AD63" s="13"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -19516,7 +19504,7 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -19543,7 +19531,7 @@
       <c r="AC65" s="13"/>
       <c r="AD65" s="13"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -19570,7 +19558,7 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -19597,7 +19585,7 @@
       <c r="AC67" s="13"/>
       <c r="AD67" s="13"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -19624,7 +19612,7 @@
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -19651,7 +19639,7 @@
       <c r="AC69" s="13"/>
       <c r="AD69" s="13"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -19985,7 +19973,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -19995,14 +19982,14 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -20010,7 +19997,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="str">
         <f>Closures!H6</f>
         <v>base</v>
@@ -20052,7 +20039,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>2020</v>
       </c>
@@ -20133,7 +20120,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>149</v>
       </c>
@@ -20217,7 +20204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>150</v>
       </c>
@@ -20302,7 +20289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>192</v>
       </c>
@@ -20387,7 +20374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>151</v>
       </c>
@@ -20472,7 +20459,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
@@ -20557,7 +20544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>153</v>
       </c>
@@ -20642,7 +20629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>154</v>
       </c>
@@ -20727,7 +20714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>155</v>
       </c>
@@ -20812,7 +20799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>156</v>
       </c>
@@ -20897,7 +20884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>157</v>
       </c>
@@ -20982,7 +20969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>158</v>
       </c>
@@ -21067,7 +21054,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>159</v>
       </c>
@@ -21152,7 +21139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>160</v>
       </c>
@@ -21237,7 +21224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>161</v>
       </c>
@@ -21322,7 +21309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>162</v>
       </c>
@@ -21407,7 +21394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>163</v>
       </c>
@@ -21492,7 +21479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -21577,7 +21564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
@@ -21662,7 +21649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>193</v>
       </c>
@@ -21747,7 +21734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>188</v>
       </c>
@@ -21832,7 +21819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
@@ -21917,7 +21904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>164</v>
       </c>
@@ -22002,7 +21989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>165</v>
       </c>
@@ -22098,7 +22085,7 @@
         <v>eps</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>93</v>
       </c>
@@ -22183,7 +22170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>166</v>
       </c>
@@ -22268,7 +22255,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>167</v>
       </c>
@@ -22353,7 +22340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>168</v>
       </c>
@@ -22438,7 +22425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
@@ -22523,7 +22510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>169</v>
       </c>
@@ -22608,7 +22595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -22693,7 +22680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>170</v>
       </c>
@@ -22778,7 +22765,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>171</v>
       </c>
@@ -22863,7 +22850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>172</v>
       </c>
@@ -22948,7 +22935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>173</v>
       </c>
@@ -23033,7 +23020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>174</v>
       </c>
@@ -23118,7 +23105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>175</v>
       </c>
@@ -23203,7 +23190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>176</v>
       </c>
@@ -23288,7 +23275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>143</v>
       </c>
@@ -23373,7 +23360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>177</v>
       </c>
@@ -23458,7 +23445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>178</v>
       </c>
@@ -23543,7 +23530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>144</v>
       </c>
@@ -23628,7 +23615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>145</v>
       </c>
@@ -23713,7 +23700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>179</v>
       </c>
@@ -23798,7 +23785,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -23822,7 +23809,7 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -23846,7 +23833,7 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -23870,7 +23857,7 @@
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -23894,7 +23881,7 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -23918,7 +23905,7 @@
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -23942,7 +23929,7 @@
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -23978,7 +23965,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23988,14 +23974,14 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -24003,7 +23989,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -24045,7 +24031,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -24127,7 +24113,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -24205,7 +24191,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>190</v>
       </c>
@@ -24283,7 +24269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -24361,7 +24347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -24439,7 +24425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -24517,7 +24503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -24595,7 +24581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -24618,7 +24604,7 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -24641,7 +24627,7 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -24696,7 +24682,6 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -24706,14 +24691,14 @@
       <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -24721,7 +24706,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="str">
         <f>TFP!C6</f>
         <v>base</v>
@@ -24763,7 +24748,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <f>TFP!C7</f>
         <v>2020</v>
@@ -24845,7 +24830,7 @@
         <v>sim9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="str">
         <f>FacProd!A8</f>
         <v>flab-n</v>
@@ -24924,7 +24909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f>FacProd!A9</f>
         <v>flab-p</v>
@@ -25003,7 +24988,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="str">
         <f>FacProd!A10</f>
         <v>flab-s</v>
@@ -25082,7 +25067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -25160,7 +25145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>187</v>
       </c>

--- a/CGE/2simulation.xlsx
+++ b/CGE/2simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\KENTIMGE\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F21C78-FD97-415D-A7B2-3278A0B507F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F1836A-2F42-411E-B7E6-CC6E28A4C836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFPgr (2)" sheetId="19" r:id="rId1"/>
@@ -854,997 +854,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -2239,7 +1249,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Notes"/>
@@ -6031,213 +5041,48 @@
       <c r="AB70" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C64:E70 H64:H70 J64:M70 K8:M63 S8:U8 S18:AB18 Y8:AB8 Y9:Z17 AB9:AB17 S17:X17 S10:X15 S20:AB70 Y19:AB19 C8:I63">
-    <cfRule type="cellIs" dxfId="136" priority="42" operator="equal">
+  <conditionalFormatting sqref="C8:I63">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U8 S18:AB18 Y8:AB8 Y9:Z17 AB9:AB17 S20:AB70 Y19:AB19">
-    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
+  <conditionalFormatting sqref="C64:M70">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I70">
-    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
+  <conditionalFormatting sqref="F8:I8">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:G70">
-    <cfRule type="cellIs" dxfId="133" priority="39" operator="equal">
+  <conditionalFormatting sqref="K8:M63">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="132" priority="33" operator="equal">
+  <conditionalFormatting sqref="L1:R1">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:N1 R1 P1">
-    <cfRule type="cellIs" dxfId="131" priority="38" operator="equal">
+  <conditionalFormatting sqref="S10:X17">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="130" priority="37" operator="equal">
+  <conditionalFormatting sqref="S8:AB8">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="129" priority="36" operator="equal">
+  <conditionalFormatting sqref="S18:AB70">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1 Q1">
-    <cfRule type="cellIs" dxfId="128" priority="35" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="127" priority="34" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D8 F8:I8">
-    <cfRule type="cellIs" dxfId="126" priority="32" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="125" priority="31" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8">
-    <cfRule type="cellIs" dxfId="123" priority="29" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="122" priority="28" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="121" priority="27" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:D56 C62:D63 C58:D59 C30:D31 C9:D28 F9:I28 F30:I31 F58:I59 F62:I63 F55:I56 C33:D50 F33:I50">
-    <cfRule type="cellIs" dxfId="120" priority="26" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:D29 F29:I29">
-    <cfRule type="cellIs" dxfId="119" priority="25" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:D32 F32:I32">
-    <cfRule type="cellIs" dxfId="118" priority="24" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:D51 F51:I51">
-    <cfRule type="cellIs" dxfId="117" priority="23" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:D53 F52:I53">
-    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:D54 F54:I54">
-    <cfRule type="cellIs" dxfId="115" priority="21" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57:D57 F57:I57">
-    <cfRule type="cellIs" dxfId="114" priority="20" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:D60 F60:I60">
-    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:D61 F61:I61">
-    <cfRule type="cellIs" dxfId="112" priority="18" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64:F70">
-    <cfRule type="cellIs" dxfId="111" priority="17" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="110" priority="16" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="109" priority="15" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E56 E62:E63 E58:E59 E30:E31 E9:E28 E33:E50">
-    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="106" priority="12" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="102" priority="8" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="101" priority="7" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8:X8">
-    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8:X8">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16:X16">
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19:X19">
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19:X19">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
+  <conditionalFormatting sqref="Y9:Z17 AB9:AB17">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6744,48 +5589,23 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C7:K7 B8:K11 Q8:Z11">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+  <conditionalFormatting sqref="B8:K12">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Z10">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+  <conditionalFormatting sqref="C7:K7">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"eps"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Z12">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Z10">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:Z10">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:Z10">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:Z10">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:K12">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Z12">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Z12">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10382,7 +9202,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7:L7 C8:L57 R8:AA57">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11271,48 +10091,18 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N8:N14 D7:L7 Q8:Z16 C8:L14">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+  <conditionalFormatting sqref="C8:L16">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"eps"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:L7 N8:N14">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Z16">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:Z16">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:Z16">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:Z16">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:Z16">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L15">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:L16">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:L16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12267,7 +11057,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M8:M14 C7:K7 B8:K17 Q8:Z17">
+  <conditionalFormatting sqref="C7:K7 M8:M14 B8:K17 Q8:Z17">
     <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
@@ -14317,7 +13107,7 @@
       <c r="AG27" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:AG27 C7:AZ7 C2:H2">
+  <conditionalFormatting sqref="C2:H2 C7:AZ7 C8:AG27">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
@@ -14937,8 +13727,8 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18:B38"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15322,9 +14112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15442,43 +14232,43 @@
         <v>29</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f>H7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:Q7" si="0">I7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -15539,43 +14329,43 @@
         <v>35</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:Q9" si="2">H9</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -15873,43 +14663,43 @@
         <v>187</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16" si="9">H16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <f t="shared" ref="J16" si="10">I16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16" si="11">J16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16" si="12">K16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <f t="shared" ref="M16" si="13">L16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <f t="shared" ref="N16" si="14">M16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16" si="15">N16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <f t="shared" ref="P16" si="16">O16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16" si="17">P16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
@@ -15933,7 +14723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA68A44C-CCAD-44B6-B62A-200AFD1681B6}">
   <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
@@ -16000,7 +14790,7 @@
         <v>1.6</v>
       </c>
       <c r="E3" s="16">
-        <f t="shared" ref="E3:J3" si="0">E2*$B$3</f>
+        <f t="shared" ref="E3" si="0">E2*$B$3</f>
         <v>1.7</v>
       </c>
       <c r="F3" s="16">
@@ -19667,303 +18457,48 @@
       <c r="AD70" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I64:I70 K64:N70 L8:N63 T8:U8 AA8:AD8 AA9:AB17 AD9:AD17 T17:U18 T10:U15 T20:AD70 C8:E70 G8:J63 AA18:AD19">
-    <cfRule type="cellIs" dxfId="94" priority="77" operator="equal">
+  <conditionalFormatting sqref="C8:E63">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:U8 T18:U18 AA8:AD8 AA9:AB17 AD9:AD17 T20:AD70 AA18:AD19">
-    <cfRule type="cellIs" dxfId="93" priority="76" operator="equal">
+  <conditionalFormatting sqref="C8:F70">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J70">
-    <cfRule type="cellIs" dxfId="92" priority="75" operator="equal">
+  <conditionalFormatting sqref="G8:J63">
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H70">
-    <cfRule type="cellIs" dxfId="91" priority="74" operator="equal">
+  <conditionalFormatting sqref="G64:N70">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="90" priority="68" operator="equal">
+  <conditionalFormatting sqref="L8:N63">
+    <cfRule type="cellIs" dxfId="24" priority="77" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:O1 S1 Q1">
-    <cfRule type="cellIs" dxfId="89" priority="73" operator="equal">
+  <conditionalFormatting sqref="M1:S1">
+    <cfRule type="cellIs" dxfId="23" priority="68" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="88" priority="72" operator="equal">
+  <conditionalFormatting sqref="T10:Z19">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="87" priority="71" operator="equal">
+  <conditionalFormatting sqref="T8:AD8">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1 R1">
-    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="cellIs" dxfId="85" priority="69" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D8 G8:J8">
-    <cfRule type="cellIs" dxfId="84" priority="66" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="83" priority="65" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8 I8">
-    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="80" priority="62" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:D56 C62:D63 C58:D59 C30:D31 C9:D28 G9:J28 G30:J31 G58:J59 G62:J63 G55:J56 C33:D50 G33:J50">
-    <cfRule type="cellIs" dxfId="78" priority="52" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:D29 G29:J29">
-    <cfRule type="cellIs" dxfId="77" priority="51" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:D32 G32:J32">
-    <cfRule type="cellIs" dxfId="76" priority="50" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:D51 G51:J51">
-    <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:D53 G52:J53">
-    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:D54 G54:J54">
-    <cfRule type="cellIs" dxfId="73" priority="47" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57:D57 G57:J57">
-    <cfRule type="cellIs" dxfId="72" priority="46" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:D60 G60:J60">
-    <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:D61 G61:J61">
-    <cfRule type="cellIs" dxfId="70" priority="44" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64:G70">
-    <cfRule type="cellIs" dxfId="69" priority="43" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="68" priority="42" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="67" priority="41" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E56 E62:E63 E58:E59 E30:E31 E9:E28 E33:E50">
-    <cfRule type="cellIs" dxfId="66" priority="40" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="cellIs" dxfId="62" priority="36" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="59" priority="33" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16:U16">
-    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19:U19">
-    <cfRule type="cellIs" dxfId="56" priority="27" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19:U19">
-    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:F63">
-    <cfRule type="cellIs" dxfId="54" priority="25" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52:F53">
-    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="51" priority="16" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F59 F62:F63 F55:F56">
-    <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64:F70">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F50">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31 F9:F28 F33:F50">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8:Z8 V17:Z18 V10:Z15">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8:Z8 V18:Z18">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V16:Z16">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V19:Z19">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V19:Z19">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+  <conditionalFormatting sqref="AA9:AB17 AD9:AD17 AA18:AD19 T20:AD70">
+    <cfRule type="cellIs" dxfId="20" priority="76" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23954,8 +22489,8 @@
       <c r="AA57" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:C50 D7:L50 C10:L57 R8:AA57">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+  <conditionalFormatting sqref="D7:L50 C8:C50 R8:AA57 C10:L57">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24651,28 +23186,23 @@
       <c r="Z16" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C7:K7 Q14:Z16 B14:K16 B8:K12 Q8:Z12">
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+  <conditionalFormatting sqref="B8:K16">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:K13 Q13:Z13">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+  <conditionalFormatting sqref="C7:K7">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Z13">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+  <conditionalFormatting sqref="Q8:Z16">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:Z13">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13:Z13">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25224,38 +23754,23 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C7:K7 B8:K11 Q8:Z11">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+  <conditionalFormatting sqref="B8:K12">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Z12 B12:K12">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+  <conditionalFormatting sqref="C7:K7">
+    <cfRule type="cellIs" dxfId="13" priority="30" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Z12">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+  <conditionalFormatting sqref="Q8:Z12">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:Z12">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:Z12">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:Z12">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
-      <formula>"eps"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:Z12">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"eps"</formula>
     </cfRule>
   </conditionalFormatting>
